--- a/USB-DAC.xlsx
+++ b/USB-DAC.xlsx
@@ -11,10 +11,10 @@
   </sheets>
   <definedNames>
     <definedName name="BoardQty">'USB-DAC. '!$I$1</definedName>
-    <definedName name="digikey_part_data">'USB-DAC. '!$J$5:$N$61</definedName>
-    <definedName name="global_part_data">'USB-DAC. '!$A$5:$I$61</definedName>
-    <definedName name="local_part_data">'USB-DAC. '!$T$5:$X$61</definedName>
-    <definedName name="mouser_part_data">'USB-DAC. '!$O$5:$S$61</definedName>
+    <definedName name="digikey_part_data">'USB-DAC. '!$J$5:$N$57</definedName>
+    <definedName name="global_part_data">'USB-DAC. '!$A$5:$I$57</definedName>
+    <definedName name="local_part_data">'USB-DAC. '!$T$5:$X$57</definedName>
+    <definedName name="mouser_part_data">'USB-DAC. '!$O$5:$S$57</definedName>
     <definedName name="TotalCost">'USB-DAC. '!$I$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -447,52 +447,6 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.10      $0.10
-    10   $0.05      $0.48
-   100   $0.02      $2.16
-   500   $0.02      $7.70
-  1000   $0.01     $12.10
-  4000   $0.01     $40.48
-  8000   $0.01     $73.92
- 12000   $0.01    $105.60</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L10" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.06      $0.60
-   100   $0.03      $2.67
-   500   $0.02      $9.53
-  1000   $0.01     $14.97
-  4000   $0.01     $50.08
-  8000   $0.01     $91.52
- 12000   $0.01    $130.68</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
      1   $0.26      $0.26
     10   $0.18      $1.77
    100   $0.09      $8.95
@@ -503,7 +457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L12" authorId="0">
+    <comment ref="L9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L15" authorId="0">
+    <comment ref="L12" authorId="0">
       <text>
         <r>
           <rPr>
@@ -548,6 +502,78 @@
   4000   $0.12    $495.92
   6000   $0.12    $743.88
   9000   $0.12   $1050.21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.11      $0.11
+    10   $0.08      $0.82
+   100   $0.04      $3.64
+   500   $0.03     $12.99
+  1000   $0.02     $20.42
+  2000   $0.02     $32.30
+  3000   $0.02     $48.42
+  4000   $0.01     $59.40
+  6000   $0.01     $89.10
+  9000   $0.01    $122.04
+ 40000   $0.01    $490.80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.05      $0.54
+   100   $0.02      $2.41
+   500   $0.02      $8.62
+  1000   $0.01     $13.55
+  4000   $0.01     $45.36
+  8000   $0.01     $82.80
+ 12000   $0.01    $118.32</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.05      $0.53
+   100   $0.02      $2.35
+   500   $0.02      $8.39
+  1000   $0.01     $13.19
+  4000   $0.01     $44.12
+  8000   $0.01     $80.56
+ 12000   $0.01    $115.08</t>
         </r>
       </text>
     </comment>
@@ -586,107 +612,23 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.11      $0.11
-    10   $0.08      $0.82
-   100   $0.04      $3.64
-   500   $0.03     $12.99
-  1000   $0.02     $20.42
-  2000   $0.02     $32.30
-  3000   $0.02     $48.42
-  4000   $0.01     $59.40
-  6000   $0.01     $89.10
-  9000   $0.01    $122.04
- 40000   $0.01    $490.80</t>
+     1   $0.27      $0.27
+    10   $0.25      $2.46
+    25   $0.18      $4.43
+   100   $0.14     $13.78
+   250   $0.09     $21.66
+   500   $0.07     $36.91
+  1000   $0.05     $50.20
+  2500   $0.05    $113.20
+  5000   $0.04    $191.10
+ 10000   $0.03    $324.90
+ 25000   $0.03    $764.50
+ 50000   $0.03   $1433.50
+125000   $0.03   $3185.00</t>
         </r>
       </text>
     </comment>
-    <comment ref="L19" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.05      $0.53
-   100   $0.02      $2.35
-   500   $0.02      $8.39
-  1000   $0.01     $13.19
-  4000   $0.01     $44.12
-  8000   $0.01     $80.56
- 12000   $0.01    $115.08</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L20" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.05      $0.48
-   100   $0.02      $2.16
-   500   $0.02      $7.70
-  1000   $0.01     $12.10
-  4000   $0.01     $40.48
-  8000   $0.01     $73.92
- 12000   $0.01    $105.60</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This part is listed but is not normally stocked.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.45      $0.45
-    10   $0.32      $3.22
-    25   $0.25      $6.26
-   100   $0.19     $18.97
-   250   $0.13     $33.56
-   500   $0.11     $53.69
-  1000   $0.08     $82.33
-  2500   $0.07    $178.97
-  5000   $0.06    $312.80
- 10000   $0.06    $556.10
- 25000   $0.05   $1303.25
- 50000   $0.05   $2317.00</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L22" authorId="0">
+    <comment ref="L18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -710,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J23" authorId="0">
+    <comment ref="J19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -723,7 +665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L23" authorId="0">
+    <comment ref="L19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -740,7 +682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L24" authorId="0">
+    <comment ref="L20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -764,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L25" authorId="0">
+    <comment ref="L21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -788,7 +730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L26" authorId="0">
+    <comment ref="L22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -813,7 +755,107 @@
         </r>
       </text>
     </comment>
+    <comment ref="L25" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.22
+   100   $0.01      $0.88
+  1000   $0.00      $3.96
+  2500   $0.00      $8.60
+  5000   $0.00     $14.20
+ 10000   $0.00     $24.70
+ 25000   $0.00     $54.25
+ 50000   $0.00     $99.50
+125000   $0.00    $243.75</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.22
+   100   $0.01      $0.88
+  1000   $0.00      $3.96
+  2500   $0.00      $8.60
+  5000   $0.00     $14.20
+ 10000   $0.00     $24.70
+ 25000   $0.00     $54.25
+ 50000   $0.00     $99.50
+125000   $0.00    $243.75</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L27" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.22
+   100   $0.01      $0.88
+  1000   $0.00      $3.96
+  2500   $0.00      $8.60
+  5000   $0.00     $14.20
+ 10000   $0.00     $24.70
+ 25000   $0.00     $54.25
+ 50000   $0.00     $99.50
+125000   $0.00    $243.75</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L28" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.02      $0.22
+   100   $0.01      $0.88
+  1000   $0.00      $3.96
+  2500   $0.00      $8.60
+  5000   $0.00     $14.20
+ 10000   $0.00     $24.70
+ 25000   $0.00     $54.25
+ 50000   $0.00     $99.50
+125000   $0.00    $243.75</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -963,6 +1005,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="L35" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.10      $0.10
+    10   $0.04      $0.35
+   100   $0.01      $1.42
+  1000   $0.01      $6.40
+  2500   $0.01     $13.90
+  5000   $0.00     $20.85
+ 10000   $0.00     $36.20
+ 25000   $0.00     $79.50
+ 50000   $0.00    $146.00
+125000   $0.00    $357.50</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="L36" authorId="0">
       <text>
         <r>
@@ -1000,70 +1067,19 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.10      $0.10
-    10   $0.02      $0.22
-   100   $0.01      $0.88
-  1000   $0.00      $3.96
-  2500   $0.00      $8.60
-  5000   $0.00     $14.20
- 10000   $0.00     $24.70
- 25000   $0.00     $54.25
- 50000   $0.00     $99.50
-125000   $0.00    $243.75</t>
+     1   $3.20      $3.20
+    10   $2.80     $28.00
+    25   $2.50     $62.50
+    50   $2.35    $117.50
+   100   $2.30    $230.00
+   250   $2.20    $550.00
+   500   $1.80    $900.00
+  1000   $1.55   $1550.00
+  5000   $1.40   $7000.00</t>
         </r>
       </text>
     </comment>
     <comment ref="L38" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.02      $0.22
-   100   $0.01      $0.88
-  1000   $0.00      $3.96
-  2500   $0.00      $8.60
-  5000   $0.00     $14.20
- 10000   $0.00     $24.70
- 25000   $0.00     $54.25
- 50000   $0.00     $99.50
-125000   $0.00    $243.75</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty/Price Breaks:
-  Qty  -  Unit$  -  Ext$
-================
-     1   $0.10      $0.10
-    10   $0.02      $0.22
-   100   $0.01      $0.88
-  1000   $0.00      $3.96
-  2500   $0.00      $8.60
-  5000   $0.00     $14.20
- 10000   $0.00     $24.70
- 25000   $0.00     $54.25
- 50000   $0.00     $99.50
-125000   $0.00    $243.75</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1085,7 +1101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L44" authorId="0">
+    <comment ref="L39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1111,7 +1127,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="L46" authorId="0">
+    <comment ref="J40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1123,9 +1152,47 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $1.50      $1.50
-    10   $1.34     $13.37
-   100   $1.04    $104.24
+     1   $0.41      $0.41
+    10   $0.33      $3.29
+   100   $0.22     $22.41
+   500   $0.17     $84.05
+  1000   $0.13    $126.07
+  2500   $0.11    $280.50
+  5000   $0.11    $527.00
+ 12500   $0.10   $1232.50
+ 25000   $0.09   $2261.00
+ 62500   $0.09   $5440.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.54      $1.54
+    10   $1.38     $13.81
+   100   $1.11    $111.01
    250   $1.01    $253.00
    500   $0.86    $430.54
   1000   $0.68    $679.80
@@ -1136,7 +1203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L47" authorId="0">
+    <comment ref="L42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1160,7 +1227,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="L49" authorId="0">
+    <comment ref="L43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $0.88      $0.88
+    10   $0.79      $7.87
+   100   $0.61     $61.36
+   500   $0.51    $253.43
+  1000   $0.40    $400.16
+  2500   $0.36    $906.50
+  5000   $0.34   $1722.35
+ 12500   $0.33   $4144.00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1181,7 +1271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L51" authorId="0">
+    <comment ref="L45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1193,18 +1283,36 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.38      $0.38
-    10   $0.30      $3.05
-   100   $0.21     $20.76
-   500   $0.16     $77.87
-  1000   $0.12    $116.80
-  2500   $0.10    $259.88
-  5000   $0.10    $488.25
- 12500   $0.09   $1141.88</t>
+     1   $3.12      $3.12
+    10   $2.80     $28.04
+   100   $2.30    $229.77
+   500   $1.96    $978.01
+  1000   $1.65   $1649.65
+  2000   $2.25   $4500.02</t>
         </r>
       </text>
     </comment>
-    <comment ref="L53" authorId="0">
+    <comment ref="L46" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1  $14.30     $14.30
+    10  $13.00    $130.00
+    25  $12.03    $300.63
+   100  $11.05   $1105.00
+   250  $10.07   $2518.75</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1228,7 +1336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L54" authorId="0">
+    <comment ref="L48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1240,19 +1348,21 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.41      $0.41
-    10   $0.33      $3.29
-   100   $0.22     $22.41
-   500   $0.17     $84.05
-  1000   $0.13    $126.07
-  2500   $0.11    $280.50
-  3150   $0.13    $415.80
-  5000   $0.11    $527.00
- 12500   $0.10   $1232.50</t>
+     1   $0.33      $0.33
+    10   $0.25      $2.48
+   100   $0.14     $14.04
+   500   $0.09     $46.50
+  1000   $0.07     $71.30
+  3000   $0.06    $180.60
+  6000   $0.05    $325.08
+ 15000   $0.05    $722.40
+ 30000   $0.05   $1354.50
+ 75000   $0.04   $3002.25
+150000   $0.04   $5779.50</t>
         </r>
       </text>
     </comment>
-    <comment ref="T56" authorId="0">
+    <comment ref="J50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1265,7 +1375,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="V56" authorId="0">
+    <comment ref="T52" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This part is listed but is not normally stocked.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L57" authorId="0">
+    <comment ref="L53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1307,7 +1430,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L59" authorId="0">
+    <comment ref="L54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1319,19 +1442,21 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.40      $0.40
-    10   $0.33      $3.30
-    50   $0.30     $14.85
-   100   $0.26     $26.40
-   500   $0.25    $125.40
-  1000   $0.19    $192.00
-  3000   $0.18    $540.00
-  5000   $0.17    $870.00
- 10000   $0.17   $1680.00</t>
+     1   $0.35      $0.35
+    10   $0.29      $2.86
+   100   $0.19     $19.48
+   500   $0.15     $73.04
+  1000   $0.11    $109.57
+  2500   $0.11    $265.95
+  5000   $0.10    $502.35
+ 12500   $0.09   $1145.00
+ 25000   $0.09   $2142.50
+ 62500   $0.08   $4801.88
+125000   $0.07   $9235.00</t>
         </r>
       </text>
     </comment>
-    <comment ref="L60" authorId="0">
+    <comment ref="L55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1343,19 +1468,14 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.36      $0.36
-    10   $0.30      $3.03
-    50   $0.27     $13.61
-   100   $0.24     $24.20
-   500   $0.23    $114.95
-  1000   $0.18    $176.00
-  3000   $0.17    $495.00
-  5000   $0.16    $797.50
- 10000   $0.15   $1540.00</t>
+     1   $0.87      $0.87
+    25   $0.73     $18.29
+   100   $0.66     $65.72
+  2000   $0.66   $1314.40</t>
         </r>
       </text>
     </comment>
-    <comment ref="L61" authorId="0">
+    <comment ref="L56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1367,19 +1487,47 @@
           <t>Qty/Price Breaks:
   Qty  -  Unit$  -  Ext$
 ================
-     1   $0.40      $0.40
-    10   $0.33      $3.30
-    50   $0.30     $14.85
-   100   $0.26     $26.40
-   500   $0.25    $125.40
-  1000   $0.19    $192.00
-  3000   $0.18    $540.00
-  5000   $0.17    $870.00
- 10000   $0.17   $1680.00</t>
+     1   $1.14      $1.14
+    10   $1.09     $10.88
+    50   $1.06     $53.13
+   100   $0.91     $91.08
+   500   $0.89    $442.75
+  1000   $0.69    $690.00
+  3000   $0.67   $2001.00
+  5000   $0.64   $3220.00
+ 10000   $0.62   $6210.00</t>
         </r>
       </text>
     </comment>
-    <comment ref="K63" authorId="0">
+    <comment ref="L57" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Qty/Price Breaks:
+  Qty  -  Unit$  -  Ext$
+================
+     1   $1.25      $1.25
+    10   $1.11     $11.08
+    50   $1.04     $51.77
+   100   $0.92     $91.50
+   250   $0.83    $208.34
+   500   $0.79    $394.74
+   750   $0.75    $559.22
+  1000   $0.60    $596.70
+  1250   $0.66    $822.38
+  2500   $0.64   $1589.93
+  3000   $0.58   $1730.43
+  6250   $0.61   $3837.75
+ 12500   $0.59   $7401.38</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1392,7 +1540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P63" authorId="0">
+    <comment ref="P59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1405,7 +1553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U63" authorId="0">
+    <comment ref="U59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1423,89 +1571,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="240">
   <si>
     <t>Global Part Info</t>
   </si>
   <si>
+    <t>Refs</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>Footprint</t>
+  </si>
+  <si>
+    <t>Manf</t>
+  </si>
+  <si>
     <t>Manf#</t>
   </si>
   <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Unit$</t>
+  </si>
+  <si>
     <t>Ext$</t>
   </si>
   <si>
-    <t>Unit$</t>
-  </si>
-  <si>
-    <t>Manf</t>
-  </si>
-  <si>
-    <t>Footprint</t>
-  </si>
-  <si>
-    <t>Refs</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>C1,C3,C4,C6,C8-C12,C14,C15,C20,C25-C27,C31,C33,C34,C39-C42,C45,C46,C49,C51,C53,C63-C66</t>
+    <t>C1,C3-C12,C14-C16,C20,C25-C27,C31,C33,C34,C39-C42,C45,C46,C49,C51,C53,C63-C66</t>
+  </si>
+  <si>
+    <t>100n</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0805_HandSoldering</t>
   </si>
   <si>
     <t>CL21B104MBCNNNC</t>
   </si>
   <si>
-    <t>Capacitors_SMD:C_0805_HandSoldering</t>
-  </si>
-  <si>
-    <t>100n</t>
-  </si>
-  <si>
-    <t>C16</t>
-  </si>
-  <si>
-    <t>CL21C180JBANNNC</t>
-  </si>
-  <si>
-    <t>20p</t>
-  </si>
-  <si>
-    <t>C17,C19</t>
-  </si>
-  <si>
-    <t>18p</t>
-  </si>
-  <si>
-    <t>C18</t>
-  </si>
-  <si>
-    <t>CL21C200JBANNNC</t>
-  </si>
-  <si>
     <t>C2,C13,C50,C52</t>
   </si>
   <si>
+    <t>10u</t>
+  </si>
+  <si>
     <t>CL21A106KAFN3NE</t>
   </si>
   <si>
-    <t>10u</t>
-  </si>
-  <si>
     <t>C21</t>
   </si>
   <si>
+    <t>100p</t>
+  </si>
+  <si>
     <t>CL21C101JBANNNC</t>
   </si>
   <si>
-    <t>100p</t>
-  </si>
-  <si>
     <t>C22,C24</t>
   </si>
   <si>
@@ -1515,66 +1642,57 @@
     <t>C23</t>
   </si>
   <si>
+    <t>1000u</t>
+  </si>
+  <si>
     <t>Capacitors_SMD:CP_Elec_5x5.7</t>
   </si>
   <si>
-    <t>1000u</t>
-  </si>
-  <si>
     <t>C43,C44,C47,C48</t>
   </si>
   <si>
+    <t>47u</t>
+  </si>
+  <si>
     <t>CL21A476MQYNNNE</t>
   </si>
   <si>
-    <t>47u</t>
-  </si>
-  <si>
-    <t>C5,C7</t>
-  </si>
-  <si>
-    <t>CL21C120JBANNNC</t>
-  </si>
-  <si>
-    <t>12p</t>
-  </si>
-  <si>
     <t>C54</t>
   </si>
   <si>
+    <t>1u</t>
+  </si>
+  <si>
     <t>CL21F105ZAFNNNG</t>
   </si>
   <si>
-    <t>1u</t>
-  </si>
-  <si>
     <t>C55,C56</t>
   </si>
   <si>
+    <t>3n9</t>
+  </si>
+  <si>
     <t>CL21B392KBANNNC</t>
   </si>
   <si>
-    <t>3n9</t>
-  </si>
-  <si>
     <t>C57-C60</t>
   </si>
   <si>
+    <t>470p</t>
+  </si>
+  <si>
     <t>CL21B471KBANNNC</t>
   </si>
   <si>
-    <t>470p</t>
-  </si>
-  <si>
     <t>C61,C62</t>
   </si>
   <si>
+    <t>22p</t>
+  </si>
+  <si>
     <t>CL21C220JBANNNC</t>
   </si>
   <si>
-    <t>22p</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -1584,321 +1702,306 @@
     <t>Diodes_SMD:D_SMA_Handsoldering</t>
   </si>
   <si>
+    <t>SS210ATR</t>
+  </si>
+  <si>
     <t>J1</t>
   </si>
   <si>
+    <t>USB_B</t>
+  </si>
+  <si>
+    <t>Connectors:USB_B</t>
+  </si>
+  <si>
     <t>E8144-B02022-L</t>
   </si>
   <si>
-    <t>Connectors:USB_B</t>
-  </si>
-  <si>
-    <t>USB_B</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
+    <t>SPDIF OUT</t>
+  </si>
+  <si>
+    <t>dacparts:pjras1x1s_series</t>
+  </si>
+  <si>
     <t>PJRAS1X1S04X</t>
   </si>
   <si>
-    <t>dacparts:pjras1x1s_series</t>
-  </si>
-  <si>
-    <t>SPDIF OUT</t>
-  </si>
-  <si>
     <t>J3</t>
   </si>
   <si>
+    <t>BARREL_JACK</t>
+  </si>
+  <si>
+    <t>Connectors:BARREL_JACK</t>
+  </si>
+  <si>
     <t>PJ-037A</t>
   </si>
   <si>
-    <t>Connectors:BARREL_JACK</t>
-  </si>
-  <si>
-    <t>BARREL_JACK</t>
-  </si>
-  <si>
     <t>J4-J6</t>
   </si>
   <si>
+    <t>JACK_TRS_6PINS</t>
+  </si>
+  <si>
+    <t>Connectors:NMJ6HCD2</t>
+  </si>
+  <si>
     <t>ACJS-MHOM</t>
   </si>
   <si>
-    <t>Connectors:NMJ6HCD2</t>
-  </si>
-  <si>
-    <t>JACK_TRS_6PINS</t>
-  </si>
-  <si>
     <t>L3,L4</t>
   </si>
   <si>
+    <t>2u2</t>
+  </si>
+  <si>
+    <t>Inductors_SMD:L_Taiyo-Yuden_NR-50xx_HandSoldering</t>
+  </si>
+  <si>
     <t>NRS5012T2R2MMGF</t>
   </si>
   <si>
-    <t>Inductors_SMD:L_Taiyo-Yuden_NR-50xx_HandSoldering</t>
-  </si>
-  <si>
-    <t>2u2</t>
-  </si>
-  <si>
     <t>R1,R13-R15</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Resistors_SMD:R_0805_HandSoldering</t>
   </si>
   <si>
-    <t>0</t>
+    <t>R11,R12</t>
+  </si>
+  <si>
+    <t>220</t>
   </si>
   <si>
     <t>R18</t>
   </si>
   <si>
+    <t>33K2</t>
+  </si>
+  <si>
     <t>RC0805FR-0733K2L</t>
   </si>
   <si>
-    <t>33K2</t>
-  </si>
-  <si>
     <t>R19</t>
   </si>
   <si>
+    <t>10K2</t>
+  </si>
+  <si>
     <t>RC0805FR-0710K2L</t>
   </si>
   <si>
-    <t>10K2</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
+    <t>43.2</t>
+  </si>
+  <si>
     <t>RC0805FR-0743R2L</t>
   </si>
   <si>
-    <t>43.2</t>
-  </si>
-  <si>
     <t>R20</t>
   </si>
   <si>
+    <t>3K74</t>
+  </si>
+  <si>
     <t>RC0805FR-073K74L</t>
   </si>
   <si>
-    <t>3K74</t>
-  </si>
-  <si>
     <t>R21</t>
   </si>
   <si>
+    <t>10K</t>
+  </si>
+  <si>
     <t>RC0805FR-0710KL</t>
   </si>
   <si>
-    <t>10K</t>
-  </si>
-  <si>
     <t>R22-R25</t>
   </si>
   <si>
+    <t>3K9</t>
+  </si>
+  <si>
     <t>RC0805FR-073K9L</t>
   </si>
   <si>
-    <t>3K9</t>
-  </si>
-  <si>
     <t>R26,R27,R32,R33</t>
   </si>
   <si>
+    <t>4K7</t>
+  </si>
+  <si>
     <t>RC0805FR-074K7L</t>
   </si>
   <si>
-    <t>4K7</t>
-  </si>
-  <si>
     <t>R28-R31</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
     <t>RC0805FR-07150RL</t>
   </si>
   <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>R3,R7,R8</t>
-  </si>
-  <si>
-    <t>RC0805FR-071ML</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
     <t>R34,R36</t>
   </si>
   <si>
+    <t>51</t>
+  </si>
+  <si>
     <t>RC0805FR-0751RL</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>R4,R9-R12</t>
-  </si>
-  <si>
-    <t>RC0805FR-07220RL</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
     <t>R40,R41</t>
   </si>
   <si>
+    <t>39.2</t>
+  </si>
+  <si>
     <t>RC0805FR-0739R2L</t>
   </si>
   <si>
-    <t>39.2</t>
-  </si>
-  <si>
     <t>R5</t>
   </si>
   <si>
+    <t>4.7</t>
+  </si>
+  <si>
     <t>RC0805FR-074R7L</t>
   </si>
   <si>
-    <t>4.7</t>
-  </si>
-  <si>
     <t>R6,R35,R37-R39</t>
   </si>
   <si>
+    <t>1K</t>
+  </si>
+  <si>
     <t>RC0805FR-071KL</t>
   </si>
   <si>
-    <t>1K</t>
-  </si>
-  <si>
     <t>RV1</t>
   </si>
   <si>
+    <t>P10K</t>
+  </si>
+  <si>
+    <t>dacparts:PTR90</t>
+  </si>
+  <si>
     <t>PTR902-2020K-A103</t>
   </si>
   <si>
-    <t>P10K</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
+    <t>ISO7340FC</t>
+  </si>
+  <si>
+    <t>Housings_SOIC:SOIC-16W_7.5x10.3mm_Pitch1.27mm</t>
+  </si>
+  <si>
     <t>ISO7340FCDWR</t>
   </si>
   <si>
-    <t>Housings_SOIC:SOIC-16W_7.5x10.3mm_Pitch1.27mm</t>
-  </si>
-  <si>
-    <t>ISO7340FC</t>
-  </si>
-  <si>
     <t>U10</t>
   </si>
   <si>
+    <t>L79L12_SO8</t>
+  </si>
+  <si>
+    <t>Housings_SOIC:SOIC-8_3.9x4.9mm_Pitch1.27mm</t>
+  </si>
+  <si>
     <t>L78L12ABD-TR</t>
   </si>
   <si>
-    <t>Housings_SOIC:SOIC-8_3.9x4.9mm_Pitch1.27mm</t>
-  </si>
-  <si>
-    <t>L79L12_SO8</t>
-  </si>
-  <si>
     <t>U11</t>
   </si>
   <si>
+    <t>AP1117-33</t>
+  </si>
+  <si>
     <t>TO_SOT_Packages_SMD:SOT-223-3_TabPin2</t>
   </si>
   <si>
-    <t>AP1117-33</t>
+    <t>LDL1117S33R</t>
   </si>
   <si>
     <t>U12,U13</t>
   </si>
   <si>
+    <t>TPS563209</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-23-6_Handsoldering</t>
+  </si>
+  <si>
     <t>TPS563209DDCT</t>
   </si>
   <si>
-    <t>TO_SOT_Packages_SMD:SOT-23-6_Handsoldering</t>
-  </si>
-  <si>
-    <t>TPS563209</t>
-  </si>
-  <si>
     <t>U14</t>
   </si>
   <si>
+    <t>AK4452</t>
+  </si>
+  <si>
+    <t>Housings_DFN_QFN:QFN-32-1EP_5x5mm_Pitch0.5mm</t>
+  </si>
+  <si>
     <t>AK4452VN</t>
   </si>
   <si>
-    <t>Housings_DFN_QFN:QFN-32-1EP_5x5mm_Pitch0.5mm</t>
-  </si>
-  <si>
-    <t>AK4452</t>
-  </si>
-  <si>
     <t>U15,U16</t>
   </si>
   <si>
+    <t>NE5534</t>
+  </si>
+  <si>
     <t>NE5534DR</t>
   </si>
   <si>
-    <t>NE5534</t>
-  </si>
-  <si>
     <t>U17,U18</t>
   </si>
   <si>
+    <t>DRV135</t>
+  </si>
+  <si>
     <t>DRV135UA/2K5</t>
   </si>
   <si>
-    <t>DRV135</t>
-  </si>
-  <si>
     <t>U19</t>
   </si>
   <si>
+    <t>TPA6120A2</t>
+  </si>
+  <si>
+    <t>Housings_SOIC:SOIC-20W_7.5x12.8mm_Pitch1.27mm</t>
+  </si>
+  <si>
     <t>TPA6120A2DWPR</t>
   </si>
   <si>
-    <t>Housings_SOIC:SOIC-20W_7.5x12.8mm_Pitch1.27mm</t>
-  </si>
-  <si>
-    <t>TPA6120A2</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>SN74LV14ADR</t>
-  </si>
-  <si>
-    <t>Housings_SOIC:SOIC-14_3.9x8.7mm_Pitch1.27mm</t>
-  </si>
-  <si>
-    <t>74LV14</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
+    <t>XHRA-2HPA</t>
+  </si>
+  <si>
+    <t>Housings_QFP:TQFP-64-1EP_10x10mm_Pitch0.5mm</t>
+  </si>
+  <si>
     <t>XHRA-2HPA-TQ64-C</t>
   </si>
   <si>
-    <t>Housings_QFP:TQFP-64-1EP_10x10mm_Pitch0.5mm</t>
-  </si>
-  <si>
-    <t>XHRA-2HPA</t>
-  </si>
-  <si>
     <t>U4</t>
   </si>
   <si>
@@ -1908,36 +2011,63 @@
     <t>TO_SOT_Packages_SMD:SOT-23-5_HandSoldering</t>
   </si>
   <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>SN74LV74ADR</t>
-  </si>
-  <si>
-    <t>74LV74</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>SN74LV174ADR</t>
-  </si>
-  <si>
-    <t>Housings_SOIC:SOIC-16_3.9x9.9mm_Pitch1.27mm</t>
-  </si>
-  <si>
-    <t>74LV157</t>
+    <t>U5#1</t>
+  </si>
+  <si>
+    <t>74LVC1G79 - p1/2</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-353_SC-70-5_Handsoldering</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>74LVC1G79GV</t>
+  </si>
+  <si>
+    <t>U5#2</t>
+  </si>
+  <si>
+    <t>74LVC1G79 - p2/2</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>U6#1</t>
+  </si>
+  <si>
+    <t>TC7WH157 - p1/2</t>
+  </si>
+  <si>
+    <t>Housings_SSOP:SSOP-8_2.95x2.8mm_Pitch0.65mm</t>
+  </si>
+  <si>
+    <t>TC7WH157FU</t>
+  </si>
+  <si>
+    <t>U6#2</t>
+  </si>
+  <si>
+    <t>TC7WH157 - p2/2</t>
+  </si>
+  <si>
+    <t>LJ(CT</t>
   </si>
   <si>
     <t>U7</t>
   </si>
   <si>
+    <t>CHINADCDC</t>
+  </si>
+  <si>
+    <t>dacparts:chinadcdc</t>
+  </si>
+  <si>
     <t>DD1718PA</t>
   </si>
   <si>
-    <t>CHINADCDC</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
@@ -1947,42 +2077,45 @@
     <t>U9</t>
   </si>
   <si>
+    <t>L78L05_SO8</t>
+  </si>
+  <si>
     <t>L78L05ABD13TR</t>
   </si>
   <si>
-    <t>L78L05_SO8</t>
-  </si>
-  <si>
     <t>Y1</t>
   </si>
   <si>
-    <t>9C-24.000MAAE-T</t>
-  </si>
-  <si>
-    <t>Crystals:Crystal_SMD_HC49-SD_HandSoldering</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
+    <t>Crystals:Crystal_SMD_3225-4pin_3.2x2.5mm</t>
+  </si>
+  <si>
+    <t>DSC6001CE1A-024.0000</t>
+  </si>
+  <si>
     <t>Y2</t>
   </si>
   <si>
-    <t>9C-24.576MBBK-T</t>
-  </si>
-  <si>
     <t>24.576</t>
   </si>
   <si>
+    <t>ASEMB-24.576MHZ-LC-T</t>
+  </si>
+  <si>
     <t>Y3</t>
   </si>
   <si>
-    <t>9C-22.5792MAAJ-T</t>
-  </si>
-  <si>
     <t>22.5792</t>
   </si>
   <si>
+    <t>Crystals:Crystal_SMD_2016-4pin_2.0x1.6mm</t>
+  </si>
+  <si>
+    <t>SIT8008BI-73-18E-22.579200G</t>
+  </si>
+  <si>
     <t>Proj:</t>
   </si>
   <si>
@@ -1992,10 +2125,13 @@
     <t>Co.:</t>
   </si>
   <si>
-    <t>Date:</t>
-  </si>
-  <si>
-    <t>2018-01-23 10:39:42</t>
+    <t>Prj date:</t>
+  </si>
+  <si>
+    <t>$ date:</t>
+  </si>
+  <si>
+    <t>2018-01-26 10:33:41</t>
   </si>
   <si>
     <t>Board Qty:</t>
@@ -2025,12 +2161,6 @@
     <t>NonStk</t>
   </si>
   <si>
-    <t>1276-1107-1-ND</t>
-  </si>
-  <si>
-    <t>1276-1829-1-ND</t>
-  </si>
-  <si>
     <t>1276-2890-1-ND</t>
   </si>
   <si>
@@ -2040,19 +2170,19 @@
     <t>1276-1852-1-ND</t>
   </si>
   <si>
-    <t>1276-1120-1-ND</t>
-  </si>
-  <si>
     <t>1276-3009-1-ND</t>
   </si>
   <si>
+    <t>1276-2512-1-ND</t>
+  </si>
+  <si>
     <t>1276-1300-1-ND</t>
   </si>
   <si>
     <t>1276-1047-1-ND</t>
   </si>
   <si>
-    <t>1655-1591-1-ND</t>
+    <t>1655-1896-1-ND</t>
   </si>
   <si>
     <t>553-2272-ND</t>
@@ -2073,6 +2203,9 @@
     <t>311-33.2KCRCT-ND</t>
   </si>
   <si>
+    <t>311-10.2KCRCT-ND</t>
+  </si>
+  <si>
     <t>311-43.2CRCT-ND</t>
   </si>
   <si>
@@ -2088,49 +2221,70 @@
     <t>311-4.70KCRCT-ND</t>
   </si>
   <si>
-    <t>311-1.00MCRCT-ND</t>
+    <t>311-150CRCT-ND</t>
   </si>
   <si>
     <t>311-51.0CRCT-ND</t>
   </si>
   <si>
-    <t>311-220CRCT-ND</t>
+    <t>311-39.2CRCT-ND</t>
+  </si>
+  <si>
+    <t>311-4.70CRCT-ND</t>
   </si>
   <si>
     <t>311-1.00KCRCT-ND</t>
   </si>
   <si>
+    <t>PTR902-2020K-A103-ND</t>
+  </si>
+  <si>
     <t>296-47262-1-ND</t>
   </si>
   <si>
     <t>497-7767-1-ND</t>
   </si>
   <si>
-    <t>296-40813-1-ND</t>
+    <t>497-17239-1-ND</t>
+  </si>
+  <si>
+    <t>296-38511-1-ND</t>
   </si>
   <si>
     <t>974-1079-1-ND</t>
   </si>
   <si>
+    <t>296-26239-1-ND</t>
+  </si>
+  <si>
     <t>296-37145-1-ND</t>
   </si>
   <si>
-    <t>296-1678-1-ND</t>
+    <t>296-39339-1-ND</t>
+  </si>
+  <si>
+    <t>880-1114-ND</t>
   </si>
   <si>
     <t>NCP303LSN09T1GOSCT-ND</t>
   </si>
   <si>
-    <t>296-26566-1-ND</t>
-  </si>
-  <si>
-    <t>887-2439-1-ND</t>
-  </si>
-  <si>
-    <t>887-1825-1-ND</t>
-  </si>
-  <si>
-    <t>887-2438-1-ND</t>
+    <t>1727-6079-1-ND</t>
+  </si>
+  <si>
+    <t>TC7WH157FUTDKR-ND</t>
+  </si>
+  <si>
+    <t>497-1180-1-ND</t>
+  </si>
+  <si>
+    <t>DSC6001CE1A-024.0000-ND</t>
+  </si>
+  <si>
+    <t>535-11749-1-ND</t>
+  </si>
+  <si>
+    <t>1473-30536-1-ND</t>
   </si>
   <si>
     <t>Mouser</t>
@@ -2652,7 +2806,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X118"/>
+  <dimension ref="A1:X110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="6" topLeftCell="J7" activePane="bottomRight" state="frozen"/>
@@ -2691,13 +2845,13 @@
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>187</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="I1" s="4">
         <v>100</v>
@@ -2705,56 +2859,64 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="I2" s="5">
-        <f>sum(I7:I61)</f>
+        <f>sum(I7:I57)</f>
         <v>0</v>
       </c>
       <c r="M2" s="5">
-        <f>sum(M7:M61)</f>
+        <f>sum(M7:M57)</f>
         <v>0</v>
       </c>
       <c r="R2" s="5">
-        <f>sum(R7:R61)</f>
+        <f>sum(R7:R57)</f>
         <v>0</v>
       </c>
       <c r="W2" s="5">
-        <f>sum(W7:W61)</f>
+        <f>sum(W7:W57)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="I3" s="6">
         <f>TotalCost/BoardQty</f>
         <v>0</v>
       </c>
       <c r="M3" s="7">
-        <f>(ROWS(M7:M61)-COUNTBLANK(M7:M61))&amp;" of "&amp;ROWS(M7:M61)&amp;" parts found"</f>
+        <f>(ROWS(M7:M57)-COUNTBLANK(M7:M57))&amp;" of "&amp;ROWS(M7:M57)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="R3" s="7">
-        <f>(ROWS(R7:R61)-COUNTBLANK(R7:R61))&amp;" of "&amp;ROWS(R7:R61)&amp;" parts found"</f>
+        <f>(ROWS(R7:R57)-COUNTBLANK(R7:R57))&amp;" of "&amp;ROWS(R7:R57)&amp;" parts found"</f>
         <v>0</v>
       </c>
       <c r="W3" s="7">
-        <f>(ROWS(W7:W61)-COUNTBLANK(W7:W61))&amp;" of "&amp;ROWS(W7:W61)&amp;" parts found"</f>
-        <v>0</v>
+        <f>(ROWS(W7:W57)-COUNTBLANK(W7:W57))&amp;" of "&amp;ROWS(W7:W57)&amp;" parts found"</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
+      <c r="A4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -2770,21 +2932,21 @@
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="11" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="U5" s="11"/>
       <c r="V5" s="11"/>
@@ -2793,76 +2955,76 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>1</v>
       </c>
       <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="U6" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="V6" s="12" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W6" s="12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X6" s="12" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -2870,20 +3032,20 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <f>BoardQty*31</f>
+        <f>BoardQty*34</f>
         <v>0</v>
       </c>
       <c r="H7" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I7" s="13">
@@ -2891,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L7" s="13">
         <f>iferror(lookup(if(K7="",G7,K7),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.029,0.013,0.00932,0.00732,0.00531,0.00485,0.00462}),"")</f>
@@ -2902,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="15" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -2910,20 +3072,20 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8">
-        <f>BoardQty*1</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H8" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I8" s="13">
@@ -2931,10 +3093,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>154360</v>
+        <v>115903</v>
       </c>
       <c r="L8" s="13">
-        <f>iferror(lookup(if(K8="",G8,K8),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.048,0.0216,0.0154,0.0121,0.01012,0.00924,0.0088}),"")</f>
+        <f>iferror(lookup(if(K8="",G8,K8),{0,1,10,100,500,1000,2000,4000},{0.0,0.26,0.177,0.0895,0.06126,0.05419,0.04509,0.04099}),"")</f>
         <v>0</v>
       </c>
       <c r="M8" s="13">
@@ -2942,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -2955,102 +3117,85 @@
       <c r="D9" t="s">
         <v>12</v>
       </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
       <c r="G9">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H9" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I9" s="13">
         <f>iferror(G9*H9,"")</f>
         <v>0</v>
       </c>
+      <c r="J9">
+        <v>142621</v>
+      </c>
+      <c r="L9" s="13">
+        <f>iferror(lookup(if(K9="",G9,K9),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.046,0.0205,0.01464,0.0115,0.00962,0.00878,0.00836}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <f>iferror(if(K9="",G9,K9)*L9,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
       <c r="G10">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H10" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I10" s="13">
         <f>iferror(G10*H10,"")</f>
         <v>0</v>
       </c>
-      <c r="J10">
-        <v>123525</v>
-      </c>
-      <c r="L10" s="13">
-        <f>iferror(lookup(if(K10="",G10,K10),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.06,0.0267,0.01906,0.01497,0.01252,0.01144,0.01089}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <f>iferror(if(K10="",G10,K10)*L10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>201</v>
-      </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <f>BoardQty*4</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H11" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I11" s="13">
         <f>iferror(G11*H11,"")</f>
         <v>0</v>
       </c>
-      <c r="J11">
-        <v>119213</v>
-      </c>
-      <c r="L11" s="13">
-        <f>iferror(lookup(if(K11="",G11,K11),{0,1,10,100,500,1000,2000,4000},{0.0,0.26,0.177,0.0895,0.06126,0.05419,0.04509,0.04099}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <f>iferror(if(K11="",G11,K11)*L11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>202</v>
-      </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3059,14 +3204,14 @@
         <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G12">
-        <f>BoardQty*1</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H12" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I12" s="13">
@@ -3074,10 +3219,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>143821</v>
+        <v>255738</v>
       </c>
       <c r="L12" s="13">
-        <f>iferror(lookup(if(K12="",G12,K12),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.046,0.0205,0.01464,0.0115,0.00962,0.00878,0.00836}),"")</f>
+        <f>iferror(lookup(if(K12="",G12,K12),{0,1,10,100,500,1000,2000,3000,4000,6000,9000},{0.0,0.53,0.365,0.2188,0.1641,0.13857,0.13128,0.13127,0.12398,0.12398,0.11669}),"")</f>
         <v>0</v>
       </c>
       <c r="M12" s="13">
@@ -3085,74 +3230,108 @@
         <v>0</v>
       </c>
       <c r="N12" s="15" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
       <c r="G13">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H13" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I13" s="13">
         <f>iferror(G13*H13,"")</f>
         <v>0</v>
       </c>
+      <c r="J13">
+        <v>43951</v>
+      </c>
+      <c r="L13" s="13">
+        <f>iferror(lookup(if(K13="",G13,K13),{0,1,10,100,500,1000,2000,3000,4000,6000,9000,40000},{0.0,0.11,0.082,0.0364,0.02598,0.02042,0.01615,0.01614,0.01485,0.01485,0.01356,0.01227}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <f>iferror(if(K13="",G13,K13)*L13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
       </c>
       <c r="G14">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H14" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I14" s="13">
         <f>iferror(G14*H14,"")</f>
         <v>0</v>
       </c>
+      <c r="J14">
+        <v>3366</v>
+      </c>
+      <c r="L14" s="13">
+        <f>iferror(lookup(if(K14="",G14,K14),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.054,0.0241,0.01724,0.01355,0.01134,0.01035,0.00986}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <f>iferror(if(K14="",G14,K14)*L14,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
         <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G15">
         <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H15" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I15" s="13">
@@ -3160,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>263055</v>
+        <v>124437</v>
       </c>
       <c r="L15" s="13">
-        <f>iferror(lookup(if(K15="",G15,K15),{0,1,10,100,500,1000,2000,3000,4000,6000,9000},{0.0,0.53,0.365,0.2188,0.1641,0.13857,0.13128,0.13127,0.12398,0.12398,0.11669}),"")</f>
+        <f>iferror(lookup(if(K15="",G15,K15),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.053,0.0235,0.01678,0.01319,0.01103,0.01007,0.00959}),"")</f>
         <v>0</v>
       </c>
       <c r="M15" s="13">
@@ -3171,28 +3350,28 @@
         <v>0</v>
       </c>
       <c r="N15" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G16">
         <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H16" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I16" s="13">
@@ -3200,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>82956</v>
+        <v>173257</v>
       </c>
       <c r="L16" s="13">
         <f>iferror(lookup(if(K16="",G16,K16),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.048,0.0216,0.0154,0.0121,0.01012,0.00924,0.0088}),"")</f>
@@ -3211,28 +3390,28 @@
         <v>0</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G17">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H17" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I17" s="13">
@@ -3240,10 +3419,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>44176</v>
+        <v>4082</v>
       </c>
       <c r="L17" s="13">
-        <f>iferror(lookup(if(K17="",G17,K17),{0,1,10,100,500,1000,2000,3000,4000,6000,9000,40000},{0.0,0.11,0.082,0.0364,0.02598,0.02042,0.01615,0.01614,0.01485,0.01485,0.01356,0.01227}),"")</f>
+        <f>iferror(lookup(if(K17="",G17,K17),{0,1,10,25,100,250,500,1000,2500,5000,10000,25000,50000,125000},{0.0,0.27,0.246,0.1772,0.1378,0.08664,0.07382,0.0502,0.04528,0.03822,0.03249,0.03058,0.02867,0.02548}),"")</f>
         <v>0</v>
       </c>
       <c r="M17" s="13">
@@ -3251,65 +3430,79 @@
         <v>0</v>
       </c>
       <c r="N17" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G18">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H18" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I18" s="13">
         <f>iferror(G18*H18,"")</f>
         <v>0</v>
       </c>
+      <c r="J18">
+        <v>7424</v>
+      </c>
+      <c r="L18" s="13">
+        <f>iferror(lookup(if(K18="",G18,K18),{0,1,10,25,50,100,250,500,1000,2500},{0.0,0.5,0.465,0.4184,0.372,0.3565,0.32552,0.31,0.25575,0.2325}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <f>iferror(if(K18="",G18,K18)*L18,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="15" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G19">
-        <f>BoardQty*4</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H19" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I19" s="13">
         <f>iferror(G19*H19,"")</f>
         <v>0</v>
       </c>
-      <c r="J19">
-        <v>126792</v>
+      <c r="J19" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="L19" s="13">
-        <f>iferror(lookup(if(K19="",G19,K19),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.053,0.0235,0.01678,0.01319,0.01103,0.01007,0.00959}),"")</f>
+        <f>iferror(lookup(if(K19="",G19,K19),{0,1,10},{0.0,3.072,3.072}),"")</f>
         <v>0</v>
       </c>
       <c r="M19" s="13">
@@ -3317,28 +3510,28 @@
         <v>0</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G20">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H20" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I20" s="13">
@@ -3346,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>173736</v>
+        <v>41615</v>
       </c>
       <c r="L20" s="13">
-        <f>iferror(lookup(if(K20="",G20,K20),{0,1,10,100,500,1000,4000,8000,12000},{0.0,0.1,0.048,0.0216,0.0154,0.0121,0.01012,0.00924,0.0088}),"")</f>
+        <f>iferror(lookup(if(K20="",G20,K20),{0,1,10,25,50,100,250,500,1000,2500},{0.0,0.58,0.543,0.4888,0.4344,0.4163,0.38012,0.362,0.29865,0.2715}),"")</f>
         <v>0</v>
       </c>
       <c r="M20" s="13">
@@ -3357,39 +3550,39 @@
         <v>0</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F21" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G21">
-        <f>BoardQty*1</f>
+        <f>BoardQty*3</f>
         <v>0</v>
       </c>
       <c r="H21" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I21" s="13">
         <f>iferror(G21*H21,"")</f>
         <v>0</v>
       </c>
-      <c r="J21" s="14" t="s">
-        <v>199</v>
+      <c r="J21">
+        <v>172</v>
       </c>
       <c r="L21" s="13">
-        <f>iferror(lookup(if(K21="",G21,K21),{0,1,10,25,100,250,500,1000,2500,5000,10000,25000,50000},{0.0,0.45,0.322,0.2504,0.1897,0.13424,0.10738,0.08233,0.07159,0.06256,0.05561,0.05213,0.04634}),"")</f>
+        <f>iferror(lookup(if(K21="",G21,K21),{0,1,10,25,50,100,250,500,1000,2500},{0.0,1.13,0.995,0.936,0.897,0.858,0.78,0.702,0.624,0.5655}),"")</f>
         <v>0</v>
       </c>
       <c r="M21" s="13">
@@ -3397,28 +3590,28 @@
         <v>0</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G22">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H22" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I22" s="13">
@@ -3426,10 +3619,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7718</v>
+        <v>2142</v>
       </c>
       <c r="L22" s="13">
-        <f>iferror(lookup(if(K22="",G22,K22),{0,1,10,25,50,100,250,500,1000,2500},{0.0,0.5,0.465,0.4184,0.372,0.3565,0.32552,0.31,0.25575,0.2325}),"")</f>
+        <f>iferror(lookup(if(K22="",G22,K22),{0,1,10,100,500,1000,3000,5000,10000,25000,50000},{0.0,0.41,0.362,0.2588,0.21736,0.162,0.153,0.144,0.1395,0.135,0.1305}),"")</f>
         <v>0</v>
       </c>
       <c r="M22" s="13">
@@ -3437,108 +3630,74 @@
         <v>0</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
-      </c>
-      <c r="F23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G23">
-        <f>BoardQty*1</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H23" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I23" s="13">
         <f>iferror(G23*H23,"")</f>
         <v>0</v>
       </c>
-      <c r="J23" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="L23" s="13">
-        <f>iferror(lookup(if(K23="",G23,K23),{0,1,10},{0.0,3.072,3.072}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <f>iferror(if(K23="",G23,K23)*L23,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N23" s="15" t="s">
-        <v>211</v>
-      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G24">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H24" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I24" s="13">
         <f>iferror(G24*H24,"")</f>
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>54921</v>
-      </c>
-      <c r="L24" s="13">
-        <f>iferror(lookup(if(K24="",G24,K24),{0,1,10,25,50,100,250,500,1000,2500},{0.0,0.58,0.543,0.4888,0.4344,0.4163,0.38012,0.362,0.29865,0.2715}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="13">
-        <f>iferror(if(K24="",G24,K24)*L24,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="15" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G25">
-        <f>BoardQty*3</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H25" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I25" s="13">
@@ -3546,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>172</v>
+        <v>389997</v>
       </c>
       <c r="L25" s="13">
-        <f>iferror(lookup(if(K25="",G25,K25),{0,1,10,25,50,100,250,500,1000,2500},{0.0,1.13,0.995,0.936,0.897,0.858,0.78,0.702,0.624,0.5655}),"")</f>
+        <f>iferror(lookup(if(K25="",G25,K25),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
         <v>0</v>
       </c>
       <c r="M25" s="13">
@@ -3557,28 +3716,28 @@
         <v>0</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F26" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G26">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H26" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I26" s="13">
@@ -3586,10 +3745,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>142</v>
+        <v>197619</v>
       </c>
       <c r="L26" s="13">
-        <f>iferror(lookup(if(K26="",G26,K26),{0,1,10,100,500,1000,3000,5000,10000,25000,50000},{0.0,0.41,0.362,0.2588,0.21736,0.162,0.153,0.144,0.1395,0.135,0.1305}),"")</f>
+        <f>iferror(lookup(if(K26="",G26,K26),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
         <v>0</v>
       </c>
       <c r="M26" s="13">
@@ -3597,51 +3756,68 @@
         <v>0</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>66</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
       </c>
       <c r="G27">
-        <f>BoardQty*4</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H27" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I27" s="13">
         <f>iferror(G27*H27,"")</f>
         <v>0</v>
       </c>
+      <c r="J27">
+        <v>30855</v>
+      </c>
+      <c r="L27" s="13">
+        <f>iferror(lookup(if(K27="",G27,K27),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <f>iferror(if(K27="",G27,K27)*L27,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="15" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G28">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H28" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I28" s="13">
@@ -3649,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>390007</v>
+        <v>26498</v>
       </c>
       <c r="L28" s="13">
         <f>iferror(lookup(if(K28="",G28,K28),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
@@ -3660,54 +3836,68 @@
         <v>0</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G29">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H29" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I29" s="13">
         <f>iferror(G29*H29,"")</f>
         <v>0</v>
       </c>
+      <c r="J29">
+        <v>15562380</v>
+      </c>
+      <c r="L29" s="13">
+        <f>iferror(lookup(if(K29="",G29,K29),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <f>iferror(if(K29="",G29,K29)*L29,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G30">
-        <f>BoardQty*1</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H30" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I30" s="13">
@@ -3715,7 +3905,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>30855</v>
+        <v>1028816</v>
       </c>
       <c r="L30" s="13">
         <f>iferror(lookup(if(K30="",G30,K30),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
@@ -3726,28 +3916,28 @@
         <v>0</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G31">
-        <f>BoardQty*1</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H31" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I31" s="13">
@@ -3755,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>36498</v>
+        <v>1796926</v>
       </c>
       <c r="L31" s="13">
         <f>iferror(lookup(if(K31="",G31,K31),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
@@ -3766,28 +3956,28 @@
         <v>0</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <f>BoardQty*1</f>
+        <f>BoardQty*4</f>
         <v>0</v>
       </c>
       <c r="H32" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I32" s="13">
@@ -3795,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>5777057</v>
+        <v>1048530</v>
       </c>
       <c r="L32" s="13">
         <f>iferror(lookup(if(K32="",G32,K32),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
@@ -3806,28 +3996,28 @@
         <v>0</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G33">
-        <f>BoardQty*4</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H33" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I33" s="13">
@@ -3835,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>1034466</v>
+        <v>624058</v>
       </c>
       <c r="L33" s="13">
         <f>iferror(lookup(if(K33="",G33,K33),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
@@ -3846,28 +4036,28 @@
         <v>0</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G34">
-        <f>BoardQty*4</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H34" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I34" s="13">
@@ -3875,7 +4065,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1429675</v>
+        <v>75390</v>
       </c>
       <c r="L34" s="13">
         <f>iferror(lookup(if(K34="",G34,K34),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
@@ -3886,54 +4076,68 @@
         <v>0</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G35">
-        <f>BoardQty*4</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H35" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I35" s="13">
         <f>iferror(G35*H35,"")</f>
         <v>0</v>
       </c>
+      <c r="J35">
+        <v>384390</v>
+      </c>
+      <c r="L35" s="13">
+        <f>iferror(lookup(if(K35="",G35,K35),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.035,0.0142,0.0064,0.00556,0.00417,0.00362,0.00318,0.00292,0.00286}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="13">
+        <f>iferror(if(K35="",G35,K35)*L35,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="15" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G36">
-        <f>BoardQty*3</f>
+        <f>BoardQty*5</f>
         <v>0</v>
       </c>
       <c r="H36" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I36" s="13">
@@ -3941,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>1558081</v>
+        <v>6061374</v>
       </c>
       <c r="L36" s="13">
         <f>iferror(lookup(if(K36="",G36,K36),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
@@ -3952,28 +4156,28 @@
         <v>0</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G37">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H37" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I37" s="13">
@@ -3981,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>729378</v>
+        <v>168</v>
       </c>
       <c r="L37" s="13">
-        <f>iferror(lookup(if(K37="",G37,K37),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
+        <f>iferror(lookup(if(K37="",G37,K37),{0,1,10,25,50,100,250,500,1000,5000},{0.0,3.2,2.8,2.5,2.35,2.3,2.2,1.8,1.55,1.4}),"")</f>
         <v>0</v>
       </c>
       <c r="M37" s="13">
@@ -3992,28 +4196,28 @@
         <v>0</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G38">
-        <f>BoardQty*5</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H38" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I38" s="13">
@@ -4021,10 +4225,10 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>1112015</v>
+        <v>1865</v>
       </c>
       <c r="L38" s="13">
-        <f>iferror(lookup(if(K38="",G38,K38),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
+        <f>iferror(lookup(if(K38="",G38,K38),{0,1,10,100,160,500,1000,2000},{0.0,4.32,3.883,3.1815,3.70694,2.70832,2.28413,1.98}),"")</f>
         <v>0</v>
       </c>
       <c r="M38" s="13">
@@ -4032,91 +4236,119 @@
         <v>0</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B39" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G39">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H39" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I39" s="13">
         <f>iferror(G39*H39,"")</f>
         <v>0</v>
       </c>
+      <c r="J39">
+        <v>2519</v>
+      </c>
+      <c r="L39" s="13">
+        <f>iferror(lookup(if(K39="",G39,K39),{0,1,10,100,500,1000,2500,5000,12500,25000,62500,125000},{0.0,0.36,0.296,0.2014,0.15104,0.11327,0.10082,0.09471,0.0886,0.08126,0.07821,0.07515}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="13">
+        <f>iferror(if(K39="",G39,K39)*L39,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F40" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G40">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H40" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I40" s="13">
         <f>iferror(G40*H40,"")</f>
         <v>0</v>
       </c>
+      <c r="J40" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L40" s="13">
+        <f>iferror(lookup(if(K40="",G40,K40),{0,1,10,100,500,1000,2500,5000,12500,25000,62500},{0.0,0.41,0.329,0.2241,0.1681,0.12607,0.1122,0.1054,0.0986,0.09044,0.08704}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <f>iferror(if(K40="",G40,K40)*L40,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="F41" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G41">
-        <f>BoardQty*5</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H41" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I41" s="13">
         <f>iferror(G41*H41,"")</f>
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>1720871</v>
+      <c r="J41" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="L41" s="13">
-        <f>iferror(lookup(if(K41="",G41,K41),{0,1,10,100,1000,2500,5000,10000,25000,50000,125000},{0.0,0.1,0.022,0.0088,0.00396,0.00344,0.00284,0.00247,0.00217,0.00199,0.00195}),"")</f>
+        <f>iferror(lookup(if(K41="",G41,K41),{0,1,10,100,250,500,1000,1250,3000,6000,15000},{0.0,1.54,1.381,1.1101,1.012,0.86108,0.6798,0.7337,0.616,0.5852,0.5632}),"")</f>
         <v>0</v>
       </c>
       <c r="M41" s="13">
@@ -4124,51 +4356,68 @@
         <v>0</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
       </c>
       <c r="F42" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="G42">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H42" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I42" s="13">
         <f>iferror(G42*H42,"")</f>
         <v>0</v>
       </c>
+      <c r="J42">
+        <v>12729</v>
+      </c>
+      <c r="L42" s="13">
+        <f>iferror(lookup(if(K42="",G42,K42),{0,1,10,25,100,250,500,1000,2000,5000},{0.0,2.83,2.524,2.2712,2.0693,1.8674,1.6756,1.421,1.323,1.274}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
+        <f>iferror(if(K42="",G42,K42)*L42,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="15" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D43" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F43" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G43">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H43" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I43" s="13">
@@ -4176,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>1907</v>
+        <v>5957</v>
       </c>
       <c r="L43" s="13">
-        <f>iferror(lookup(if(K43="",G43,K43),{0,1,10,100,160,500,1000,2000},{0.0,4.32,3.883,3.1815,3.70694,2.70832,2.28413,1.98}),"")</f>
+        <f>iferror(lookup(if(K43="",G43,K43),{0,1,10,100,500,1000,2500,5000,12500},{0.0,0.88,0.787,0.6136,0.50686,0.40016,0.3626,0.34447,0.33152}),"")</f>
         <v>0</v>
       </c>
       <c r="M43" s="13">
@@ -4187,28 +4436,28 @@
         <v>0</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G44">
-        <f>BoardQty*1</f>
+        <f>BoardQty*2</f>
         <v>0</v>
       </c>
       <c r="H44" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I44" s="13">
@@ -4216,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2524</v>
+        <v>3660</v>
       </c>
       <c r="L44" s="13">
-        <f>iferror(lookup(if(K44="",G44,K44),{0,1,10,100,500,1000,2500,5000,12500,25000,62500,125000},{0.0,0.36,0.296,0.2014,0.15104,0.11327,0.10082,0.09471,0.0886,0.08126,0.07821,0.07515}),"")</f>
+        <f>iferror(lookup(if(K44="",G44,K44),{0,1,10,100,500,1000,2500},{0.0,4.92,4.417,3.6193,3.08106,2.59848,2.2525}),"")</f>
         <v>0</v>
       </c>
       <c r="M44" s="13">
@@ -4227,51 +4476,68 @@
         <v>0</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>137</v>
+      </c>
+      <c r="F45" t="s">
+        <v>138</v>
       </c>
       <c r="G45">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H45" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I45" s="13">
         <f>iferror(G45*H45,"")</f>
         <v>0</v>
       </c>
+      <c r="J45">
+        <v>3813</v>
+      </c>
+      <c r="L45" s="13">
+        <f>iferror(lookup(if(K45="",G45,K45),{0,1,10,100,500,1000,2000},{0.0,3.12,2.804,2.2977,1.95602,1.64965,2.25001}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="13">
+        <f>iferror(if(K45="",G45,K45)*L45,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="15" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="G46">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H46" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I46" s="13">
@@ -4279,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>191</v>
+        <v>305</v>
       </c>
       <c r="L46" s="13">
-        <f>iferror(lookup(if(K46="",G46,K46),{0,1,10,100,250,500,1000,1250,3000,6000,15000},{0.0,1.5,1.337,1.0424,1.012,0.86108,0.6798,0.7337,0.616,0.5852,0.5632}),"")</f>
+        <f>iferror(lookup(if(K46="",G46,K46),{0,1,10,25,100,250},{0.0,14.3,13.0,12.0252,11.05,10.075}),"")</f>
         <v>0</v>
       </c>
       <c r="M46" s="13">
@@ -4290,28 +4556,28 @@
         <v>0</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G47">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H47" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I47" s="13">
@@ -4319,10 +4585,10 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <v>12789</v>
+        <v>9709</v>
       </c>
       <c r="L47" s="13">
-        <f>iferror(lookup(if(K47="",G47,K47),{0,1,10,25,100,250,500,1000,2000,5000},{0.0,2.83,2.524,2.2712,2.0693,1.8674,1.6756,1.421,1.323,1.274}),"")</f>
+        <f>iferror(lookup(if(K47="",G47,K47),{0,1,10,100,500,1000,3000,6000,15000,30000},{0.0,0.48,0.413,0.3086,0.24246,0.18736,0.16585,0.15515,0.14445,0.13696}),"")</f>
         <v>0</v>
       </c>
       <c r="M47" s="13">
@@ -4330,186 +4596,204 @@
         <v>0</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>127</v>
+        <v>148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>149</v>
       </c>
       <c r="F48" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G48">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H48" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I48" s="13">
         <f>iferror(G48*H48,"")</f>
         <v>0</v>
       </c>
+      <c r="J48">
+        <v>3329</v>
+      </c>
+      <c r="L48" s="13">
+        <f>iferror(lookup(if(K48="",G48,K48),{0,1,10,100,500,1000,3000,6000,15000,30000,75000,150000},{0.0,0.33,0.248,0.1404,0.093,0.0713,0.0602,0.05418,0.04816,0.04515,0.04003,0.03853}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="13">
+        <f>iferror(if(K48="",G48,K48)*L48,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D49" t="s">
-        <v>127</v>
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>149</v>
       </c>
       <c r="F49" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="G49">
-        <f>BoardQty*2</f>
+        <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H49" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I49" s="13">
         <f>iferror(G49*H49,"")</f>
         <v>0</v>
       </c>
-      <c r="J49">
-        <v>3888</v>
-      </c>
-      <c r="L49" s="13">
-        <f>iferror(lookup(if(K49="",G49,K49),{0,1,10,100,500,1000,2500},{0.0,4.92,4.417,3.6193,3.08106,2.59848,2.2525}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="13">
-        <f>iferror(if(K49="",G49,K49)*L49,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N49" s="15" t="s">
-        <v>229</v>
-      </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" t="s">
+        <v>156</v>
+      </c>
+      <c r="E50" t="s">
         <v>149</v>
       </c>
-      <c r="D50" t="s">
-        <v>148</v>
-      </c>
       <c r="F50" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G50">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H50" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I50" s="13">
         <f>iferror(G50*H50,"")</f>
         <v>0</v>
       </c>
+      <c r="J50" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N50" s="15" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>156</v>
+      </c>
+      <c r="E51" t="s">
+        <v>149</v>
       </c>
       <c r="F51" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G51">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H51" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I51" s="13">
         <f>iferror(G51*H51,"")</f>
         <v>0</v>
       </c>
-      <c r="J51">
-        <v>7022</v>
-      </c>
-      <c r="L51" s="13">
-        <f>iferror(lookup(if(K51="",G51,K51),{0,1,10,100,500,1000,2500,5000,12500},{0.0,0.38,0.305,0.2076,0.15574,0.1168,0.10395,0.09765,0.09135}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="13">
-        <f>iferror(if(K51="",G51,K51)*L51,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N51" s="15" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="F52" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="G52">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H52" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I52" s="13">
         <f>iferror(G52*H52,"")</f>
         <v>0</v>
       </c>
+      <c r="T52" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V52" s="13">
+        <f>iferror(lookup(if(U52="",G52,U52),{0,1},{0.0,3.19}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="13">
+        <f>iferror(if(U52="",G52,U52)*V52,"")</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="15" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="G53">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H53" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I53" s="13">
@@ -4517,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>9709</v>
+        <v>2519</v>
       </c>
       <c r="L53" s="13">
-        <f>iferror(lookup(if(K53="",G53,K53),{0,1,10,100,500,1000,3000,6000,15000,30000},{0.0,0.48,0.413,0.3086,0.24246,0.18736,0.16585,0.15515,0.14445,0.13696}),"")</f>
+        <f>iferror(lookup(if(K53="",G53,K53),{0,1,10,100,500,1000,2500,5000,12500,25000,62500,125000},{0.0,0.36,0.296,0.2014,0.15104,0.11327,0.10082,0.09471,0.0886,0.08126,0.07821,0.07515}),"")</f>
         <v>0</v>
       </c>
       <c r="M53" s="13">
@@ -4528,28 +4812,28 @@
         <v>0</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>115</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="G54">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H54" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I54" s="13">
@@ -4557,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <v>11443</v>
+        <v>2559</v>
       </c>
       <c r="L54" s="13">
-        <f>iferror(lookup(if(K54="",G54,K54),{0,1,10,100,500,1000,2500,3150,5000,12500},{0.0,0.41,0.329,0.2241,0.1681,0.12607,0.1122,0.132,0.1054,0.0986}),"")</f>
+        <f>iferror(lookup(if(K54="",G54,K54),{0,1,10,100,500,1000,2500,5000,12500,25000,62500,125000},{0.0,0.35,0.286,0.1948,0.14608,0.10957,0.10638,0.10047,0.0916,0.0857,0.07683,0.07388}),"")</f>
         <v>0</v>
       </c>
       <c r="M54" s="13">
@@ -4568,91 +4852,108 @@
         <v>0</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="F55" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="G55">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H55" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I55" s="13">
         <f>iferror(G55*H55,"")</f>
         <v>0</v>
       </c>
+      <c r="J55">
+        <v>1194</v>
+      </c>
+      <c r="L55" s="13">
+        <f>iferror(lookup(if(K55="",G55,K55),{0,1,25,100,2000},{0.0,0.87,0.7316,0.6572,0.6572}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="13">
+        <f>iferror(if(K55="",G55,K55)*L55,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>175</v>
+      </c>
+      <c r="D56" t="s">
+        <v>172</v>
       </c>
       <c r="F56" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G56">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H56" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I56" s="13">
         <f>iferror(G56*H56,"")</f>
         <v>0</v>
       </c>
-      <c r="T56" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="V56" s="13">
-        <f>iferror(lookup(if(U56="",G56,U56),{0,1},{0.0,3.19}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W56" s="13">
-        <f>iferror(if(U56="",G56,U56)*V56,"")</f>
-        <v>0</v>
-      </c>
-      <c r="X56" s="15" t="s">
-        <v>169</v>
+      <c r="J56">
+        <v>7504</v>
+      </c>
+      <c r="L56" s="13">
+        <f>iferror(lookup(if(K56="",G56,K56),{0,1,10,50,100,500,1000,3000,5000,10000},{0.0,1.14,1.088,1.0626,0.9108,0.8855,0.69,0.667,0.644,0.621}),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="13">
+        <f>iferror(if(K56="",G56,K56)*L56,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D57" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="F57" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="G57">
         <f>BoardQty*1</f>
         <v>0</v>
       </c>
       <c r="H57" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
+        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)))</f>
         <v>0</v>
       </c>
       <c r="I57" s="13">
@@ -4660,10 +4961,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>2524</v>
+        <v>250</v>
       </c>
       <c r="L57" s="13">
-        <f>iferror(lookup(if(K57="",G57,K57),{0,1,10,100,500,1000,2500,5000,12500,25000,62500,125000},{0.0,0.36,0.296,0.2014,0.15104,0.11327,0.10082,0.09471,0.0886,0.08126,0.07821,0.07515}),"")</f>
+        <f>iferror(lookup(if(K57="",G57,K57),{0,1,10,50,100,250,500,750,1000,1250,2500,3000,6250,12500},{0.0,1.25,1.108,1.0354,0.915,0.83336,0.78948,0.74563,0.5967,0.6579,0.63597,0.57681,0.61404,0.59211}),"")</f>
         <v>0</v>
       </c>
       <c r="M57" s="13">
@@ -4671,2256 +4972,1958 @@
         <v>0</v>
       </c>
       <c r="N57" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24">
-      <c r="A58" t="s">
-        <v>173</v>
-      </c>
-      <c r="B58" t="s">
-        <v>175</v>
-      </c>
-      <c r="D58" t="s">
-        <v>127</v>
-      </c>
-      <c r="F58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G58">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I58" s="13">
-        <f>iferror(G58*H58,"")</f>
-        <v>0</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:24">
-      <c r="A59" t="s">
-        <v>176</v>
-      </c>
-      <c r="B59" t="s">
-        <v>179</v>
-      </c>
-      <c r="D59" t="s">
-        <v>178</v>
-      </c>
-      <c r="F59" t="s">
-        <v>177</v>
-      </c>
-      <c r="G59">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I59" s="13">
-        <f>iferror(G59*H59,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>686</v>
-      </c>
-      <c r="L59" s="13">
-        <f>iferror(lookup(if(K59="",G59,K59),{0,1,10,50,100,500,1000,3000,5000,10000},{0.0,0.4,0.33,0.297,0.264,0.2508,0.192,0.18,0.174,0.168}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M59" s="13">
-        <f>iferror(if(K59="",G59,K59)*L59,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N59" s="15" t="s">
-        <v>233</v>
+      <c r="K59" s="7">
+        <f>IFERROR(IF(OR(K7:K57),COUNTIF(K7:K57,"&gt;0")&amp;" of "&amp;ROWS(K7:K57)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="7">
+        <f>IFERROR(IF(OR(P7:P57),COUNTIF(P7:P57,"&gt;0")&amp;" of "&amp;ROWS(P7:P57)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U59" s="7">
+        <f>IFERROR(IF(OR(U7:U57),COUNTIF(U7:U57,"&gt;0")&amp;" of "&amp;ROWS(U7:U57)&amp;" parts purchased",""),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:24">
-      <c r="A60" t="s">
-        <v>180</v>
-      </c>
-      <c r="B60" t="s">
-        <v>182</v>
-      </c>
-      <c r="D60" t="s">
-        <v>178</v>
-      </c>
-      <c r="F60" t="s">
-        <v>181</v>
-      </c>
-      <c r="G60">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I60" s="13">
-        <f>iferror(G60*H60,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>802</v>
-      </c>
-      <c r="L60" s="13">
-        <f>iferror(lookup(if(K60="",G60,K60),{0,1,10,50,100,500,1000,3000,5000,10000},{0.0,0.36,0.303,0.2722,0.242,0.2299,0.176,0.165,0.1595,0.154}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M60" s="13">
-        <f>iferror(if(K60="",G60,K60)*L60,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>234</v>
+      <c r="K60">
+        <f t="array" ref="K60">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="array" ref="L60">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <f t="array" ref="M60">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="array" ref="P60">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <f t="array" ref="Q60">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <f t="array" ref="R60">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <f t="array" ref="U60">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V60">
+        <f t="array" ref="V60">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W60">
+        <f t="array" ref="W60">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:24">
-      <c r="A61" t="s">
-        <v>183</v>
-      </c>
-      <c r="B61" t="s">
-        <v>185</v>
-      </c>
-      <c r="D61" t="s">
-        <v>178</v>
-      </c>
-      <c r="F61" t="s">
-        <v>184</v>
-      </c>
-      <c r="G61">
-        <f>BoardQty*1</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="13">
-        <f>MINA(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2)))</f>
-        <v>0</v>
-      </c>
-      <c r="I61" s="13">
-        <f>iferror(G61*H61,"")</f>
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>1741</v>
-      </c>
-      <c r="L61" s="13">
-        <f>iferror(lookup(if(K61="",G61,K61),{0,1,10,50,100,500,1000,3000,5000,10000},{0.0,0.4,0.33,0.297,0.264,0.2508,0.192,0.18,0.174,0.168}),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="13">
-        <f>iferror(if(K61="",G61,K61)*L61,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N61" s="15" t="s">
-        <v>235</v>
+      <c r="K61">
+        <f t="array" ref="K61">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="array" ref="L61">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <f t="array" ref="M61">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="array" ref="P61">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <f t="array" ref="Q61">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <f t="array" ref="R61">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <f t="array" ref="U61">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V61">
+        <f t="array" ref="V61">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <f t="array" ref="W61">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
+      <c r="K62">
+        <f t="array" ref="K62">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="array" ref="L62">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="array" ref="M62">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="array" ref="P62">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q62">
+        <f t="array" ref="Q62">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <f t="array" ref="R62">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U62">
+        <f t="array" ref="U62">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V62">
+        <f t="array" ref="V62">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W62">
+        <f t="array" ref="W62">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:24">
-      <c r="K63" s="7">
-        <f>IFERROR(IF(OR(K7:K61),COUNTIF(K7:K61,"&gt;0")&amp;" of "&amp;ROWS(K7:K61)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P63" s="7">
-        <f>IFERROR(IF(OR(P7:P61),COUNTIF(P7:P61,"&gt;0")&amp;" of "&amp;ROWS(P7:P61)&amp;" parts purchased",""),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U63" s="7">
-        <f>IFERROR(IF(OR(U7:U61),COUNTIF(U7:U61,"&gt;0")&amp;" of "&amp;ROWS(U7:U61)&amp;" parts purchased",""),"")</f>
+      <c r="K63">
+        <f t="array" ref="K63">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="array" ref="L63">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <f t="array" ref="M63">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <f t="array" ref="P63">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="Q63">
+        <f t="array" ref="Q63">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <f t="array" ref="R63">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
+        <v>0</v>
+      </c>
+      <c r="U63">
+        <f t="array" ref="U63">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="V63">
+        <f t="array" ref="V63">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
+        <v>0</v>
+      </c>
+      <c r="W63">
+        <f t="array" ref="W63">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="K64">
-        <f t="array" ref="K64">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K64">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L64">
-        <f t="array" ref="L64">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L64">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M64">
-        <f t="array" ref="M64">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M64">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="array" ref="P64">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P64">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q64">
-        <f t="array" ref="Q64">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q64">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R64">
-        <f t="array" ref="R64">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R64">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U64">
-        <f t="array" ref="U64">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U64">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V64">
-        <f t="array" ref="V64">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V64">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W64">
-        <f t="array" ref="W64">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W64">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="11:23">
       <c r="K65">
-        <f t="array" ref="K65">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K65">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L65">
-        <f t="array" ref="L65">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L65">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M65">
-        <f t="array" ref="M65">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M65">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="array" ref="P65">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P65">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q65">
-        <f t="array" ref="Q65">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q65">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R65">
-        <f t="array" ref="R65">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R65">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U65">
-        <f t="array" ref="U65">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U65">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V65">
-        <f t="array" ref="V65">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V65">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W65">
-        <f t="array" ref="W65">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W65">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="11:23">
       <c r="K66">
-        <f t="array" ref="K66">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K66">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L66">
-        <f t="array" ref="L66">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L66">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M66">
-        <f t="array" ref="M66">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M66">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="array" ref="P66">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P66">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q66">
-        <f t="array" ref="Q66">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q66">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R66">
-        <f t="array" ref="R66">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R66">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U66">
-        <f t="array" ref="U66">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U66">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V66">
-        <f t="array" ref="V66">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V66">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W66">
-        <f t="array" ref="W66">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W66">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="11:23">
       <c r="K67">
-        <f t="array" ref="K67">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K67">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="array" ref="L67">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L67">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M67">
-        <f t="array" ref="M67">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M67">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="array" ref="P67">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P67">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q67">
-        <f t="array" ref="Q67">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q67">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="array" ref="R67">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R67">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U67">
-        <f t="array" ref="U67">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U67">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V67">
-        <f t="array" ref="V67">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V67">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W67">
-        <f t="array" ref="W67">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W67">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="11:23">
       <c r="K68">
-        <f t="array" ref="K68">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K68">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L68">
-        <f t="array" ref="L68">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L68">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M68">
-        <f t="array" ref="M68">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M68">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="array" ref="P68">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P68">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q68">
-        <f t="array" ref="Q68">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q68">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R68">
-        <f t="array" ref="R68">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R68">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U68">
-        <f t="array" ref="U68">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U68">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V68">
-        <f t="array" ref="V68">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V68">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W68">
-        <f t="array" ref="W68">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W68">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="11:23">
       <c r="K69">
-        <f t="array" ref="K69">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K69">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L69">
-        <f t="array" ref="L69">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L69">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M69">
-        <f t="array" ref="M69">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M69">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="array" ref="P69">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P69">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q69">
-        <f t="array" ref="Q69">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q69">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R69">
-        <f t="array" ref="R69">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R69">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U69">
-        <f t="array" ref="U69">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U69">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V69">
-        <f t="array" ref="V69">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V69">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W69">
-        <f t="array" ref="W69">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W69">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="11:23">
       <c r="K70">
-        <f t="array" ref="K70">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K70">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L70">
-        <f t="array" ref="L70">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L70">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M70">
-        <f t="array" ref="M70">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M70">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P70">
-        <f t="array" ref="P70">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P70">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q70">
-        <f t="array" ref="Q70">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q70">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R70">
-        <f t="array" ref="R70">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R70">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U70">
-        <f t="array" ref="U70">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U70">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V70">
-        <f t="array" ref="V70">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V70">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W70">
-        <f t="array" ref="W70">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W70">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="11:23">
       <c r="K71">
-        <f t="array" ref="K71">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K71">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L71">
-        <f t="array" ref="L71">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L71">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M71">
-        <f t="array" ref="M71">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M71">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="array" ref="P71">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P71">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q71">
-        <f t="array" ref="Q71">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q71">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R71">
-        <f t="array" ref="R71">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R71">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U71">
-        <f t="array" ref="U71">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U71">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V71">
-        <f t="array" ref="V71">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V71">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W71">
-        <f t="array" ref="W71">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W71">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="11:23">
       <c r="K72">
-        <f t="array" ref="K72">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K72">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L72">
-        <f t="array" ref="L72">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L72">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M72">
-        <f t="array" ref="M72">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M72">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="array" ref="P72">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P72">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q72">
-        <f t="array" ref="Q72">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q72">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R72">
-        <f t="array" ref="R72">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R72">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U72">
-        <f t="array" ref="U72">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U72">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V72">
-        <f t="array" ref="V72">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V72">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W72">
-        <f t="array" ref="W72">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W72">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="11:23">
       <c r="K73">
-        <f t="array" ref="K73">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K73">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L73">
-        <f t="array" ref="L73">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L73">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M73">
-        <f t="array" ref="M73">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M73">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P73">
-        <f t="array" ref="P73">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P73">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q73">
-        <f t="array" ref="Q73">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q73">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R73">
-        <f t="array" ref="R73">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R73">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U73">
-        <f t="array" ref="U73">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U73">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V73">
-        <f t="array" ref="V73">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V73">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W73">
-        <f t="array" ref="W73">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W73">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="11:23">
       <c r="K74">
-        <f t="array" ref="K74">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K74">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L74">
-        <f t="array" ref="L74">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L74">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M74">
-        <f t="array" ref="M74">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M74">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P74">
-        <f t="array" ref="P74">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P74">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q74">
-        <f t="array" ref="Q74">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q74">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R74">
-        <f t="array" ref="R74">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R74">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U74">
-        <f t="array" ref="U74">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U74">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V74">
-        <f t="array" ref="V74">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V74">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W74">
-        <f t="array" ref="W74">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W74">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="11:23">
       <c r="K75">
-        <f t="array" ref="K75">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K75">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L75">
-        <f t="array" ref="L75">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L75">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M75">
-        <f t="array" ref="M75">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M75">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P75">
-        <f t="array" ref="P75">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P75">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q75">
-        <f t="array" ref="Q75">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q75">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R75">
-        <f t="array" ref="R75">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R75">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U75">
-        <f t="array" ref="U75">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U75">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V75">
-        <f t="array" ref="V75">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V75">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W75">
-        <f t="array" ref="W75">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W75">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="11:23">
       <c r="K76">
-        <f t="array" ref="K76">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K76">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L76">
-        <f t="array" ref="L76">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L76">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M76">
-        <f t="array" ref="M76">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M76">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P76">
-        <f t="array" ref="P76">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P76">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q76">
-        <f t="array" ref="Q76">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q76">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R76">
-        <f t="array" ref="R76">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R76">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U76">
-        <f t="array" ref="U76">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U76">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V76">
-        <f t="array" ref="V76">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V76">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W76">
-        <f t="array" ref="W76">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W76">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="11:23">
       <c r="K77">
-        <f t="array" ref="K77">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K77">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L77">
-        <f t="array" ref="L77">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L77">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M77">
-        <f t="array" ref="M77">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M77">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="array" ref="P77">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P77">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q77">
-        <f t="array" ref="Q77">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q77">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R77">
-        <f t="array" ref="R77">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R77">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U77">
-        <f t="array" ref="U77">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U77">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V77">
-        <f t="array" ref="V77">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V77">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W77">
-        <f t="array" ref="W77">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W77">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="11:23">
       <c r="K78">
-        <f t="array" ref="K78">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K78">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L78">
-        <f t="array" ref="L78">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L78">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M78">
-        <f t="array" ref="M78">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M78">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P78">
-        <f t="array" ref="P78">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P78">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q78">
-        <f t="array" ref="Q78">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q78">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R78">
-        <f t="array" ref="R78">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R78">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U78">
-        <f t="array" ref="U78">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U78">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V78">
-        <f t="array" ref="V78">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V78">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W78">
-        <f t="array" ref="W78">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W78">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="11:23">
       <c r="K79">
-        <f t="array" ref="K79">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K79">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L79">
-        <f t="array" ref="L79">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L79">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M79">
-        <f t="array" ref="M79">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M79">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="array" ref="P79">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P79">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q79">
-        <f t="array" ref="Q79">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q79">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R79">
-        <f t="array" ref="R79">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R79">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U79">
-        <f t="array" ref="U79">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U79">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V79">
-        <f t="array" ref="V79">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V79">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W79">
-        <f t="array" ref="W79">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W79">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="11:23">
       <c r="K80">
-        <f t="array" ref="K80">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K80">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L80">
-        <f t="array" ref="L80">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L80">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M80">
-        <f t="array" ref="M80">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M80">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P80">
-        <f t="array" ref="P80">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P80">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q80">
-        <f t="array" ref="Q80">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q80">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R80">
-        <f t="array" ref="R80">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R80">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U80">
-        <f t="array" ref="U80">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U80">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V80">
-        <f t="array" ref="V80">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V80">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W80">
-        <f t="array" ref="W80">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W80">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="11:23">
       <c r="K81">
-        <f t="array" ref="K81">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K81">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L81">
-        <f t="array" ref="L81">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L81">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M81">
-        <f t="array" ref="M81">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M81">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P81">
-        <f t="array" ref="P81">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P81">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q81">
-        <f t="array" ref="Q81">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q81">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R81">
-        <f t="array" ref="R81">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R81">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U81">
-        <f t="array" ref="U81">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U81">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V81">
-        <f t="array" ref="V81">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V81">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W81">
-        <f t="array" ref="W81">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W81">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="11:23">
       <c r="K82">
-        <f t="array" ref="K82">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K82">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L82">
-        <f t="array" ref="L82">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L82">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M82">
-        <f t="array" ref="M82">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M82">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="array" ref="P82">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P82">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q82">
-        <f t="array" ref="Q82">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q82">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R82">
-        <f t="array" ref="R82">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R82">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U82">
-        <f t="array" ref="U82">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U82">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V82">
-        <f t="array" ref="V82">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V82">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W82">
-        <f t="array" ref="W82">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W82">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="11:23">
       <c r="K83">
-        <f t="array" ref="K83">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K83">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L83">
-        <f t="array" ref="L83">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L83">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M83">
-        <f t="array" ref="M83">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M83">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P83">
-        <f t="array" ref="P83">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P83">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q83">
-        <f t="array" ref="Q83">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q83">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R83">
-        <f t="array" ref="R83">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R83">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U83">
-        <f t="array" ref="U83">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U83">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V83">
-        <f t="array" ref="V83">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V83">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W83">
-        <f t="array" ref="W83">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W83">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="11:23">
       <c r="K84">
-        <f t="array" ref="K84">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K84">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L84">
-        <f t="array" ref="L84">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L84">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M84">
-        <f t="array" ref="M84">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M84">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P84">
-        <f t="array" ref="P84">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P84">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q84">
-        <f t="array" ref="Q84">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q84">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R84">
-        <f t="array" ref="R84">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R84">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U84">
-        <f t="array" ref="U84">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U84">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V84">
-        <f t="array" ref="V84">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V84">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W84">
-        <f t="array" ref="W84">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W84">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="11:23">
       <c r="K85">
-        <f t="array" ref="K85">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K85">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L85">
-        <f t="array" ref="L85">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L85">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M85">
-        <f t="array" ref="M85">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M85">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="array" ref="P85">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P85">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q85">
-        <f t="array" ref="Q85">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q85">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R85">
-        <f t="array" ref="R85">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R85">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U85">
-        <f t="array" ref="U85">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U85">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V85">
-        <f t="array" ref="V85">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V85">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W85">
-        <f t="array" ref="W85">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W85">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="11:23">
       <c r="K86">
-        <f t="array" ref="K86">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K86">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L86">
-        <f t="array" ref="L86">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L86">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M86">
-        <f t="array" ref="M86">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M86">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P86">
-        <f t="array" ref="P86">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P86">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q86">
-        <f t="array" ref="Q86">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q86">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R86">
-        <f t="array" ref="R86">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R86">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U86">
-        <f t="array" ref="U86">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U86">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V86">
-        <f t="array" ref="V86">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V86">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W86">
-        <f t="array" ref="W86">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W86">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="11:23">
       <c r="K87">
-        <f t="array" ref="K87">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K87">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L87">
-        <f t="array" ref="L87">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L87">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M87">
-        <f t="array" ref="M87">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M87">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P87">
-        <f t="array" ref="P87">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P87">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q87">
-        <f t="array" ref="Q87">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q87">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R87">
-        <f t="array" ref="R87">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R87">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U87">
-        <f t="array" ref="U87">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U87">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V87">
-        <f t="array" ref="V87">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V87">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W87">
-        <f t="array" ref="W87">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W87">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="11:23">
       <c r="K88">
-        <f t="array" ref="K88">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K88">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L88">
-        <f t="array" ref="L88">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L88">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M88">
-        <f t="array" ref="M88">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M88">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P88">
-        <f t="array" ref="P88">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P88">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q88">
-        <f t="array" ref="Q88">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q88">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R88">
-        <f t="array" ref="R88">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R88">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U88">
-        <f t="array" ref="U88">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U88">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V88">
-        <f t="array" ref="V88">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V88">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W88">
-        <f t="array" ref="W88">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W88">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="11:23">
       <c r="K89">
-        <f t="array" ref="K89">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K89">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L89">
-        <f t="array" ref="L89">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L89">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M89">
-        <f t="array" ref="M89">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M89">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P89">
-        <f t="array" ref="P89">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P89">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q89">
-        <f t="array" ref="Q89">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q89">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R89">
-        <f t="array" ref="R89">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R89">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U89">
-        <f t="array" ref="U89">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U89">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V89">
-        <f t="array" ref="V89">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V89">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W89">
-        <f t="array" ref="W89">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W89">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="11:23">
       <c r="K90">
-        <f t="array" ref="K90">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K90">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L90">
-        <f t="array" ref="L90">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L90">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M90">
-        <f t="array" ref="M90">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M90">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P90">
-        <f t="array" ref="P90">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P90">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q90">
-        <f t="array" ref="Q90">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q90">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R90">
-        <f t="array" ref="R90">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R90">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U90">
-        <f t="array" ref="U90">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U90">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V90">
-        <f t="array" ref="V90">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V90">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W90">
-        <f t="array" ref="W90">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W90">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="11:23">
       <c r="K91">
-        <f t="array" ref="K91">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K91">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L91">
-        <f t="array" ref="L91">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L91">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M91">
-        <f t="array" ref="M91">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M91">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P91">
-        <f t="array" ref="P91">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P91">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q91">
-        <f t="array" ref="Q91">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q91">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R91">
-        <f t="array" ref="R91">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R91">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U91">
-        <f t="array" ref="U91">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U91">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V91">
-        <f t="array" ref="V91">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V91">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W91">
-        <f t="array" ref="W91">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W91">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="11:23">
       <c r="K92">
-        <f t="array" ref="K92">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K92">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L92">
-        <f t="array" ref="L92">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L92">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M92">
-        <f t="array" ref="M92">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M92">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P92">
-        <f t="array" ref="P92">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P92">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q92">
-        <f t="array" ref="Q92">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q92">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R92">
-        <f t="array" ref="R92">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R92">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U92">
-        <f t="array" ref="U92">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U92">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V92">
-        <f t="array" ref="V92">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V92">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W92">
-        <f t="array" ref="W92">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W92">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="11:23">
       <c r="K93">
-        <f t="array" ref="K93">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K93">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L93">
-        <f t="array" ref="L93">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L93">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M93">
-        <f t="array" ref="M93">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M93">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P93">
-        <f t="array" ref="P93">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P93">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q93">
-        <f t="array" ref="Q93">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q93">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R93">
-        <f t="array" ref="R93">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R93">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U93">
-        <f t="array" ref="U93">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U93">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V93">
-        <f t="array" ref="V93">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V93">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W93">
-        <f t="array" ref="W93">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W93">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="11:23">
       <c r="K94">
-        <f t="array" ref="K94">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K94">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L94">
-        <f t="array" ref="L94">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L94">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M94">
-        <f t="array" ref="M94">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M94">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P94">
-        <f t="array" ref="P94">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P94">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q94">
-        <f t="array" ref="Q94">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q94">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R94">
-        <f t="array" ref="R94">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R94">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U94">
-        <f t="array" ref="U94">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U94">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V94">
-        <f t="array" ref="V94">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V94">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W94">
-        <f t="array" ref="W94">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W94">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="11:23">
       <c r="K95">
-        <f t="array" ref="K95">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K95">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L95">
-        <f t="array" ref="L95">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L95">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M95">
-        <f t="array" ref="M95">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M95">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P95">
-        <f t="array" ref="P95">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P95">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q95">
-        <f t="array" ref="Q95">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q95">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R95">
-        <f t="array" ref="R95">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R95">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U95">
-        <f t="array" ref="U95">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U95">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V95">
-        <f t="array" ref="V95">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V95">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W95">
-        <f t="array" ref="W95">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W95">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="11:23">
       <c r="K96">
-        <f t="array" ref="K96">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K96">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L96">
-        <f t="array" ref="L96">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L96">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M96">
-        <f t="array" ref="M96">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M96">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P96">
-        <f t="array" ref="P96">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P96">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q96">
-        <f t="array" ref="Q96">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q96">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R96">
-        <f t="array" ref="R96">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R96">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U96">
-        <f t="array" ref="U96">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U96">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V96">
-        <f t="array" ref="V96">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V96">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W96">
-        <f t="array" ref="W96">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W96">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="11:23">
       <c r="K97">
-        <f t="array" ref="K97">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K97">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L97">
-        <f t="array" ref="L97">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L97">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M97">
-        <f t="array" ref="M97">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M97">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P97">
-        <f t="array" ref="P97">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P97">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q97">
-        <f t="array" ref="Q97">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q97">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R97">
-        <f t="array" ref="R97">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R97">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U97">
-        <f t="array" ref="U97">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U97">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V97">
-        <f t="array" ref="V97">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V97">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W97">
-        <f t="array" ref="W97">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W97">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="11:23">
       <c r="K98">
-        <f t="array" ref="K98">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K98">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L98">
-        <f t="array" ref="L98">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L98">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M98">
-        <f t="array" ref="M98">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M98">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P98">
-        <f t="array" ref="P98">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P98">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q98">
-        <f t="array" ref="Q98">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q98">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R98">
-        <f t="array" ref="R98">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R98">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U98">
-        <f t="array" ref="U98">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U98">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V98">
-        <f t="array" ref="V98">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V98">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W98">
-        <f t="array" ref="W98">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W98">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="11:23">
       <c r="K99">
-        <f t="array" ref="K99">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K99">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L99">
-        <f t="array" ref="L99">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L99">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M99">
-        <f t="array" ref="M99">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M99">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P99">
-        <f t="array" ref="P99">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P99">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q99">
-        <f t="array" ref="Q99">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q99">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R99">
-        <f t="array" ref="R99">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R99">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U99">
-        <f t="array" ref="U99">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U99">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V99">
-        <f t="array" ref="V99">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V99">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W99">
-        <f t="array" ref="W99">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W99">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="11:23">
       <c r="K100">
-        <f t="array" ref="K100">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K100">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="array" ref="L100">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L100">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M100">
-        <f t="array" ref="M100">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M100">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P100">
-        <f t="array" ref="P100">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P100">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q100">
-        <f t="array" ref="Q100">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q100">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R100">
-        <f t="array" ref="R100">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R100">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U100">
-        <f t="array" ref="U100">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U100">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V100">
-        <f t="array" ref="V100">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V100">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W100">
-        <f t="array" ref="W100">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W100">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="11:23">
       <c r="K101">
-        <f t="array" ref="K101">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K101">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L101">
-        <f t="array" ref="L101">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L101">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M101">
-        <f t="array" ref="M101">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M101">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P101">
-        <f t="array" ref="P101">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P101">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q101">
-        <f t="array" ref="Q101">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q101">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R101">
-        <f t="array" ref="R101">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R101">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U101">
-        <f t="array" ref="U101">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U101">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V101">
-        <f t="array" ref="V101">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V101">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W101">
-        <f t="array" ref="W101">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W101">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="11:23">
       <c r="K102">
-        <f t="array" ref="K102">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K102">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L102">
-        <f t="array" ref="L102">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L102">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M102">
-        <f t="array" ref="M102">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M102">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P102">
-        <f t="array" ref="P102">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P102">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q102">
-        <f t="array" ref="Q102">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q102">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R102">
-        <f t="array" ref="R102">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R102">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U102">
-        <f t="array" ref="U102">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U102">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V102">
-        <f t="array" ref="V102">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V102">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W102">
-        <f t="array" ref="W102">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W102">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="11:23">
       <c r="K103">
-        <f t="array" ref="K103">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K103">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L103">
-        <f t="array" ref="L103">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L103">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M103">
-        <f t="array" ref="M103">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M103">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P103">
-        <f t="array" ref="P103">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P103">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q103">
-        <f t="array" ref="Q103">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q103">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R103">
-        <f t="array" ref="R103">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R103">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U103">
-        <f t="array" ref="U103">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U103">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V103">
-        <f t="array" ref="V103">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V103">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W103">
-        <f t="array" ref="W103">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W103">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="11:23">
       <c r="K104">
-        <f t="array" ref="K104">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K104">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L104">
-        <f t="array" ref="L104">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L104">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M104">
-        <f t="array" ref="M104">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M104">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P104">
-        <f t="array" ref="P104">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P104">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q104">
-        <f t="array" ref="Q104">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q104">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R104">
-        <f t="array" ref="R104">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R104">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U104">
-        <f t="array" ref="U104">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U104">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V104">
-        <f t="array" ref="V104">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V104">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W104">
-        <f t="array" ref="W104">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W104">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="11:23">
       <c r="K105">
-        <f t="array" ref="K105">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K105">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L105">
-        <f t="array" ref="L105">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L105">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M105">
-        <f t="array" ref="M105">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M105">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P105">
-        <f t="array" ref="P105">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P105">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q105">
-        <f t="array" ref="Q105">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q105">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R105">
-        <f t="array" ref="R105">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R105">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U105">
-        <f t="array" ref="U105">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U105">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V105">
-        <f t="array" ref="V105">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V105">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W105">
-        <f t="array" ref="W105">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W105">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="11:23">
       <c r="K106">
-        <f t="array" ref="K106">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K106">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L106">
-        <f t="array" ref="L106">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L106">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M106">
-        <f t="array" ref="M106">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M106">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P106">
-        <f t="array" ref="P106">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P106">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q106">
-        <f t="array" ref="Q106">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q106">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R106">
-        <f t="array" ref="R106">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R106">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U106">
-        <f t="array" ref="U106">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U106">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V106">
-        <f t="array" ref="V106">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V106">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W106">
-        <f t="array" ref="W106">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W106">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="11:23">
       <c r="K107">
-        <f t="array" ref="K107">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K107">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L107">
-        <f t="array" ref="L107">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L107">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M107">
-        <f t="array" ref="M107">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M107">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P107">
-        <f t="array" ref="P107">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P107">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q107">
-        <f t="array" ref="Q107">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q107">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R107">
-        <f t="array" ref="R107">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R107">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U107">
-        <f t="array" ref="U107">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U107">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V107">
-        <f t="array" ref="V107">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V107">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W107">
-        <f t="array" ref="W107">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W107">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="11:23">
       <c r="K108">
-        <f t="array" ref="K108">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K108">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L108">
-        <f t="array" ref="L108">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L108">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M108">
-        <f t="array" ref="M108">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M108">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P108">
-        <f t="array" ref="P108">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P108">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q108">
-        <f t="array" ref="Q108">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q108">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R108">
-        <f t="array" ref="R108">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R108">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U108">
-        <f t="array" ref="U108">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U108">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V108">
-        <f t="array" ref="V108">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V108">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W108">
-        <f t="array" ref="W108">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W108">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="11:23">
       <c r="K109">
-        <f t="array" ref="K109">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K109">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L109">
-        <f t="array" ref="L109">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L109">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M109">
-        <f t="array" ref="M109">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M109">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P109">
-        <f t="array" ref="P109">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P109">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q109">
-        <f t="array" ref="Q109">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q109">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R109">
-        <f t="array" ref="R109">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R109">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U109">
-        <f t="array" ref="U109">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U109">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V109">
-        <f t="array" ref="V109">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V109">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W109">
-        <f t="array" ref="W109">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W109">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="11:23">
       <c r="K110">
-        <f t="array" ref="K110">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
+        <f t="array" ref="K110">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0"),","),"")</f>
         <v>0</v>
       </c>
       <c r="L110">
-        <f t="array" ref="L110">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
+        <f t="array" ref="L110">IFERROR(CONCATENATE((INDEX($N$7:$N$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),","),"")</f>
         <v>0</v>
       </c>
       <c r="M110">
-        <f t="array" ref="M110">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="M110">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($N$7:$N$57&lt;&gt;"",IF($K$7:$K$57&lt;&gt;"",ROW($K$7:$K$57)-MIN(ROW($K$7:$K$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="P110">
-        <f t="array" ref="P110">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="P110">IFERROR(CONCATENATE((INDEX($S$7:$S$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="Q110">
-        <f t="array" ref="Q110">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="Q110">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="R110">
-        <f t="array" ref="R110">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="R110">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($S$7:$S$57&lt;&gt;"",IF($P$7:$P$57&lt;&gt;"",ROW($P$7:$P$57)-MIN(ROW($P$7:$P$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
       <c r="U110">
-        <f t="array" ref="U110">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
+        <f t="array" ref="U110">IFERROR(CONCATENATE((INDEX($X$7:$X$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)))," "),"")</f>
         <v>0</v>
       </c>
       <c r="V110">
-        <f t="array" ref="V110">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
+        <f t="array" ref="V110">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1)),"##0")," "),"")</f>
         <v>0</v>
       </c>
       <c r="W110">
-        <f t="array" ref="W110">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="11:23">
-      <c r="K111">
-        <f t="array" ref="K111">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <f t="array" ref="L111">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M111">
-        <f t="array" ref="M111">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P111">
-        <f t="array" ref="P111">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q111">
-        <f t="array" ref="Q111">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <f t="array" ref="R111">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U111">
-        <f t="array" ref="U111">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V111">
-        <f t="array" ref="V111">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W111">
-        <f t="array" ref="W111">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="11:23">
-      <c r="K112">
-        <f t="array" ref="K112">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L112">
-        <f t="array" ref="L112">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M112">
-        <f t="array" ref="M112">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P112">
-        <f t="array" ref="P112">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q112">
-        <f t="array" ref="Q112">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <f t="array" ref="R112">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U112">
-        <f t="array" ref="U112">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V112">
-        <f t="array" ref="V112">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W112">
-        <f t="array" ref="W112">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="11:23">
-      <c r="K113">
-        <f t="array" ref="K113">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L113">
-        <f t="array" ref="L113">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M113">
-        <f t="array" ref="M113">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P113">
-        <f t="array" ref="P113">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q113">
-        <f t="array" ref="Q113">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <f t="array" ref="R113">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U113">
-        <f t="array" ref="U113">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V113">
-        <f t="array" ref="V113">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W113">
-        <f t="array" ref="W113">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="11:23">
-      <c r="K114">
-        <f t="array" ref="K114">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L114">
-        <f t="array" ref="L114">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M114">
-        <f t="array" ref="M114">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P114">
-        <f t="array" ref="P114">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q114">
-        <f t="array" ref="Q114">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R114">
-        <f t="array" ref="R114">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U114">
-        <f t="array" ref="U114">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V114">
-        <f t="array" ref="V114">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W114">
-        <f t="array" ref="W114">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="11:23">
-      <c r="K115">
-        <f t="array" ref="K115">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <f t="array" ref="L115">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M115">
-        <f t="array" ref="M115">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P115">
-        <f t="array" ref="P115">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q115">
-        <f t="array" ref="Q115">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R115">
-        <f t="array" ref="R115">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U115">
-        <f t="array" ref="U115">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V115">
-        <f t="array" ref="V115">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W115">
-        <f t="array" ref="W115">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="11:23">
-      <c r="K116">
-        <f t="array" ref="K116">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L116">
-        <f t="array" ref="L116">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M116">
-        <f t="array" ref="M116">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P116">
-        <f t="array" ref="P116">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q116">
-        <f t="array" ref="Q116">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R116">
-        <f t="array" ref="R116">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U116">
-        <f t="array" ref="U116">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V116">
-        <f t="array" ref="V116">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W116">
-        <f t="array" ref="W116">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="11:23">
-      <c r="K117">
-        <f t="array" ref="K117">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L117">
-        <f t="array" ref="L117">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M117">
-        <f t="array" ref="M117">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P117">
-        <f t="array" ref="P117">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q117">
-        <f t="array" ref="Q117">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R117">
-        <f t="array" ref="R117">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U117">
-        <f t="array" ref="U117">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V117">
-        <f t="array" ref="V117">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W117">
-        <f t="array" ref="W117">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="11:23">
-      <c r="K118">
-        <f t="array" ref="K118">IFERROR(CONCATENATE(TEXT(INDEX($K$7:$K$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0"),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="L118">
-        <f t="array" ref="L118">IFERROR(CONCATENATE((INDEX($N$7:$N$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),","),"")</f>
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <f t="array" ref="M118">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($N$7:$N$61&lt;&gt;"",IF($K$7:$K$61&lt;&gt;"",ROW($K$7:$K$61)-MIN(ROW($K$7:$K$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="P118">
-        <f t="array" ref="P118">IFERROR(CONCATENATE((INDEX($S$7:$S$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <f t="array" ref="Q118">IFERROR(CONCATENATE(TEXT(INDEX($P$7:$P$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <f t="array" ref="R118">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($S$7:$S$61&lt;&gt;"",IF($P$7:$P$61&lt;&gt;"",ROW($P$7:$P$61)-MIN(ROW($P$7:$P$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
-        <v>0</v>
-      </c>
-      <c r="U118">
-        <f t="array" ref="U118">IFERROR(CONCATENATE((INDEX($X$7:$X$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)))," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="V118">
-        <f t="array" ref="V118">IFERROR(CONCATENATE(TEXT(INDEX($U$7:$U$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1)),"##0")," "),"")</f>
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <f t="array" ref="W118">IFERROR(CONCATENATE((INDEX($A$7:$A$61,SMALL(IF($X$7:$X$61&lt;&gt;"",IF($U$7:$U$61&lt;&gt;"",ROW($U$7:$U$61)-MIN(ROW($U$7:$U$61))+1,""),""),ROW()-ROW(A$64)+1))),),"")</f>
+        <f t="array" ref="W110">IFERROR(CONCATENATE((INDEX($A$7:$A$57,SMALL(IF($X$7:$X$57&lt;&gt;"",IF($U$7:$U$57&lt;&gt;"",ROW($U$7:$U$57)-MIN(ROW($U$7:$U$57))+1,""),""),ROW()-ROW(A$60)+1))),),"")</f>
         <v>0</v>
       </c>
     </row>
@@ -6933,1548 +6936,1625 @@
   </mergeCells>
   <conditionalFormatting sqref="G10">
     <cfRule type="expression" dxfId="0" priority="10">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="11" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="12" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
     <cfRule type="expression" dxfId="0" priority="13">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
     <cfRule type="expression" dxfId="0" priority="16">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="17" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="18" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
     <cfRule type="expression" dxfId="0" priority="19">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="20" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="21" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
     <cfRule type="expression" dxfId="0" priority="22">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="23" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="24" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
     <cfRule type="expression" dxfId="0" priority="25">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="26" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="27" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
     <cfRule type="expression" dxfId="0" priority="28">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="29" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="30" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17">
     <cfRule type="expression" dxfId="0" priority="31">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="32" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="33" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18">
     <cfRule type="expression" dxfId="0" priority="34">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="35" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="36" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19">
     <cfRule type="expression" dxfId="0" priority="37">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="38" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="39" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
     <cfRule type="expression" dxfId="0" priority="40">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="41" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="42" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21">
     <cfRule type="expression" dxfId="0" priority="43">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="44" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="45" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">
     <cfRule type="expression" dxfId="0" priority="46">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="47" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="48" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
     <cfRule type="expression" dxfId="0" priority="49">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="50" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="51" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G24">
     <cfRule type="expression" dxfId="0" priority="52">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="53" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="54" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25">
     <cfRule type="expression" dxfId="0" priority="55">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="56" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="57" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
     <cfRule type="expression" dxfId="0" priority="58">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="59" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="60" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
     <cfRule type="expression" dxfId="0" priority="61">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="62" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="63" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
     <cfRule type="expression" dxfId="0" priority="64">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="65" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="66" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
     <cfRule type="expression" dxfId="0" priority="67">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="68" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="69" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30">
     <cfRule type="expression" dxfId="0" priority="70">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="71" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="72" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
     <cfRule type="expression" dxfId="0" priority="73">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="74" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="75" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
     <cfRule type="expression" dxfId="0" priority="76">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="77" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="78" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
     <cfRule type="expression" dxfId="0" priority="79">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="80" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="81" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
     <cfRule type="expression" dxfId="0" priority="82">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="83" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="84" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
     <cfRule type="expression" dxfId="0" priority="85">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="86" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="87" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
     <cfRule type="expression" dxfId="0" priority="88">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="89" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="90" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
     <cfRule type="expression" dxfId="0" priority="91">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="92" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="93" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
     <cfRule type="expression" dxfId="0" priority="94">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="95" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="96" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
     <cfRule type="expression" dxfId="0" priority="97">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="98" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="99" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
     <cfRule type="expression" dxfId="0" priority="100">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="101" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="102" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G41">
     <cfRule type="expression" dxfId="0" priority="103">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="104" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="105" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
     <cfRule type="expression" dxfId="0" priority="106">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="107" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="108" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
     <cfRule type="expression" dxfId="0" priority="109">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="110" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="111" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
     <cfRule type="expression" dxfId="0" priority="112">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="113" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="114" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G45">
     <cfRule type="expression" dxfId="0" priority="115">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="116" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="117" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46">
     <cfRule type="expression" dxfId="0" priority="118">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="119" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="120" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
     <cfRule type="expression" dxfId="0" priority="121">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="122" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="123" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
     <cfRule type="expression" dxfId="0" priority="124">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="125" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="126" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
     <cfRule type="expression" dxfId="0" priority="127">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="128" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="129" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50">
     <cfRule type="expression" dxfId="0" priority="130">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="131" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="132" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51">
     <cfRule type="expression" dxfId="0" priority="133">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="134" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="135" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52">
     <cfRule type="expression" dxfId="0" priority="136">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="137" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="138" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
     <cfRule type="expression" dxfId="0" priority="139">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="140" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="141" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G54">
     <cfRule type="expression" dxfId="0" priority="142">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="143" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="144" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G55">
     <cfRule type="expression" dxfId="0" priority="145">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="146" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="147" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56">
     <cfRule type="expression" dxfId="0" priority="148">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="149" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="150" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57">
     <cfRule type="expression" dxfId="0" priority="151">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="152" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="153" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G58">
-    <cfRule type="expression" dxfId="0" priority="154">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="155" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="156" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G59">
-    <cfRule type="expression" dxfId="0" priority="157">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="158" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="159" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G60">
-    <cfRule type="expression" dxfId="0" priority="160">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="161" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="162" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G61">
-    <cfRule type="expression" dxfId="0" priority="163">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="164" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="165" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
     <cfRule type="expression" dxfId="0" priority="4">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
     <cfRule type="expression" dxfId="0" priority="7">
-      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))=0,1,0)</formula>
+      <formula>IF(SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))=0,1,0)</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="8" operator="greaterThan">
-      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)))</formula>
+      <formula>SUM(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+0)),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+0)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="9" operator="greaterThan">
-      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="0" priority="176" operator="equal">
+      <formula>SUM(IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(mouser_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(digikey_part_data)+1)),0),IF(ISNUMBER(INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+2))),INDIRECT(ADDRESS(ROW(),COLUMN(local_part_data)+1)),0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="cellIs" dxfId="0" priority="169" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="177" operator="lessThan">
-      <formula>G10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11">
-    <cfRule type="cellIs" dxfId="0" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="170" operator="lessThan">
+      <formula>G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="0" priority="174" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="182" operator="lessThan">
-      <formula>G11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" dxfId="0" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="175" operator="lessThan">
+      <formula>G13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="cellIs" dxfId="0" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="187" operator="lessThan">
-      <formula>G12</formula>
+    <cfRule type="cellIs" dxfId="1" priority="180" operator="lessThan">
+      <formula>G14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J15">
-    <cfRule type="cellIs" dxfId="0" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="184" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="192" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="185" operator="lessThan">
       <formula>G15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="0" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="189" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="197" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="190" operator="lessThan">
       <formula>G16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17">
-    <cfRule type="cellIs" dxfId="0" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="194" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="202" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="195" operator="lessThan">
       <formula>G17</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="cellIs" dxfId="0" priority="199" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="200" operator="lessThan">
+      <formula>G18</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J19">
-    <cfRule type="cellIs" dxfId="0" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="204" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="207" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="205" operator="lessThan">
       <formula>G19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J20">
-    <cfRule type="cellIs" dxfId="0" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="209" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="212" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="210" operator="lessThan">
       <formula>G20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J21">
-    <cfRule type="cellIs" dxfId="0" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="214" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="217" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="215" operator="lessThan">
       <formula>G21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22">
-    <cfRule type="cellIs" dxfId="0" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="219" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="222" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="220" operator="lessThan">
       <formula>G22</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="cellIs" dxfId="0" priority="226" operator="equal">
+  <conditionalFormatting sqref="J25">
+    <cfRule type="cellIs" dxfId="0" priority="224" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="227" operator="lessThan">
-      <formula>G23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="0" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="225" operator="lessThan">
+      <formula>G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="cellIs" dxfId="0" priority="229" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="232" operator="lessThan">
-      <formula>G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="cellIs" dxfId="0" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="230" operator="lessThan">
+      <formula>G26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="cellIs" dxfId="0" priority="234" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="237" operator="lessThan">
-      <formula>G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
-    <cfRule type="cellIs" dxfId="0" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="235" operator="lessThan">
+      <formula>G27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="cellIs" dxfId="0" priority="239" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="242" operator="lessThan">
-      <formula>G26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
-    <cfRule type="cellIs" dxfId="0" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="240" operator="lessThan">
+      <formula>G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="cellIs" dxfId="0" priority="244" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="247" operator="lessThan">
-      <formula>G28</formula>
+    <cfRule type="cellIs" dxfId="1" priority="245" operator="lessThan">
+      <formula>G29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30">
-    <cfRule type="cellIs" dxfId="0" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="249" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="252" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="250" operator="lessThan">
       <formula>G30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="cellIs" dxfId="0" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="254" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="257" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="255" operator="lessThan">
       <formula>G31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32">
-    <cfRule type="cellIs" dxfId="0" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="259" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="262" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="260" operator="lessThan">
       <formula>G32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J33">
-    <cfRule type="cellIs" dxfId="0" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="264" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="267" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="265" operator="lessThan">
       <formula>G33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J34">
-    <cfRule type="cellIs" dxfId="0" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="269" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="272" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="270" operator="lessThan">
       <formula>G34</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
+    <cfRule type="cellIs" dxfId="0" priority="274" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="275" operator="lessThan">
+      <formula>G35</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J36">
-    <cfRule type="cellIs" dxfId="0" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="279" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="277" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="280" operator="lessThan">
       <formula>G36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J37">
-    <cfRule type="cellIs" dxfId="0" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="284" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="282" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="285" operator="lessThan">
       <formula>G37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J38">
-    <cfRule type="cellIs" dxfId="0" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="289" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="287" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="290" operator="lessThan">
       <formula>G38</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J39">
+    <cfRule type="cellIs" dxfId="0" priority="294" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="295" operator="lessThan">
+      <formula>G39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J40">
+    <cfRule type="cellIs" dxfId="0" priority="299" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="300" operator="lessThan">
+      <formula>G40</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J41">
-    <cfRule type="cellIs" dxfId="0" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="304" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="292" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="305" operator="lessThan">
       <formula>G41</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J42">
+    <cfRule type="cellIs" dxfId="0" priority="309" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="310" operator="lessThan">
+      <formula>G42</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J43">
-    <cfRule type="cellIs" dxfId="0" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="314" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="297" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="315" operator="lessThan">
       <formula>G43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44">
-    <cfRule type="cellIs" dxfId="0" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="319" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="302" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="320" operator="lessThan">
       <formula>G44</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J45">
+    <cfRule type="cellIs" dxfId="0" priority="324" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="325" operator="lessThan">
+      <formula>G45</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" dxfId="0" priority="306" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="329" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="307" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="330" operator="lessThan">
       <formula>G46</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" dxfId="0" priority="311" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="334" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="312" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="335" operator="lessThan">
       <formula>G47</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49">
-    <cfRule type="cellIs" dxfId="0" priority="316" operator="equal">
+  <conditionalFormatting sqref="J48">
+    <cfRule type="cellIs" dxfId="0" priority="339" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="317" operator="lessThan">
-      <formula>G49</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" dxfId="0" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="340" operator="lessThan">
+      <formula>G48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J53">
+    <cfRule type="cellIs" dxfId="0" priority="344" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="322" operator="lessThan">
-      <formula>G51</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="cellIs" dxfId="0" priority="326" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="345" operator="lessThan">
+      <formula>G53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J54">
+    <cfRule type="cellIs" dxfId="0" priority="349" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="327" operator="lessThan">
-      <formula>G53</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J54">
-    <cfRule type="cellIs" dxfId="0" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="350" operator="lessThan">
+      <formula>G54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J55">
+    <cfRule type="cellIs" dxfId="0" priority="354" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="332" operator="lessThan">
-      <formula>G54</formula>
+    <cfRule type="cellIs" dxfId="1" priority="355" operator="lessThan">
+      <formula>G55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56">
+    <cfRule type="cellIs" dxfId="0" priority="359" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="360" operator="lessThan">
+      <formula>G56</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J57">
-    <cfRule type="cellIs" dxfId="0" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="364" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="337" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="365" operator="lessThan">
       <formula>G57</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J59">
-    <cfRule type="cellIs" dxfId="0" priority="341" operator="equal">
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="0" priority="154" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="342" operator="lessThan">
-      <formula>G59</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J60">
-    <cfRule type="cellIs" dxfId="0" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="155" operator="lessThan">
+      <formula>G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="cellIs" dxfId="0" priority="159" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="347" operator="lessThan">
-      <formula>G60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J61">
-    <cfRule type="cellIs" dxfId="0" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="160" operator="lessThan">
+      <formula>G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="0" priority="164" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="352" operator="lessThan">
-      <formula>G61</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="cellIs" dxfId="0" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="165" operator="lessThan">
+      <formula>G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="cellIs" dxfId="0" priority="171" operator="greaterThan">
+      <formula>J12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="0" priority="176" operator="greaterThan">
+      <formula>J13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="cellIs" dxfId="0" priority="181" operator="greaterThan">
+      <formula>J14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="0" priority="186" operator="greaterThan">
+      <formula>J15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="0" priority="191" operator="greaterThan">
+      <formula>J16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="0" priority="196" operator="greaterThan">
+      <formula>J17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="cellIs" dxfId="0" priority="201" operator="greaterThan">
+      <formula>J18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="cellIs" dxfId="0" priority="206" operator="greaterThan">
+      <formula>J19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="cellIs" dxfId="0" priority="211" operator="greaterThan">
+      <formula>J20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="cellIs" dxfId="0" priority="216" operator="greaterThan">
+      <formula>J21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K22">
+    <cfRule type="cellIs" dxfId="0" priority="221" operator="greaterThan">
+      <formula>J22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K25">
+    <cfRule type="cellIs" dxfId="0" priority="226" operator="greaterThan">
+      <formula>J25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="cellIs" dxfId="0" priority="231" operator="greaterThan">
+      <formula>J26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="cellIs" dxfId="0" priority="236" operator="greaterThan">
+      <formula>J27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="cellIs" dxfId="0" priority="241" operator="greaterThan">
+      <formula>J28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="cellIs" dxfId="0" priority="246" operator="greaterThan">
+      <formula>J29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="cellIs" dxfId="0" priority="251" operator="greaterThan">
+      <formula>J30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="cellIs" dxfId="0" priority="256" operator="greaterThan">
+      <formula>J31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32">
+    <cfRule type="cellIs" dxfId="0" priority="261" operator="greaterThan">
+      <formula>J32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K33">
+    <cfRule type="cellIs" dxfId="0" priority="266" operator="greaterThan">
+      <formula>J33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K34">
+    <cfRule type="cellIs" dxfId="0" priority="271" operator="greaterThan">
+      <formula>J34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K35">
+    <cfRule type="cellIs" dxfId="0" priority="276" operator="greaterThan">
+      <formula>J35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K36">
+    <cfRule type="cellIs" dxfId="0" priority="281" operator="greaterThan">
+      <formula>J36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K37">
+    <cfRule type="cellIs" dxfId="0" priority="286" operator="greaterThan">
+      <formula>J37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38">
+    <cfRule type="cellIs" dxfId="0" priority="291" operator="greaterThan">
+      <formula>J38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K39">
+    <cfRule type="cellIs" dxfId="0" priority="296" operator="greaterThan">
+      <formula>J39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K40">
+    <cfRule type="cellIs" dxfId="0" priority="301" operator="greaterThan">
+      <formula>J40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K41">
+    <cfRule type="cellIs" dxfId="0" priority="306" operator="greaterThan">
+      <formula>J41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="cellIs" dxfId="0" priority="311" operator="greaterThan">
+      <formula>J42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K43">
+    <cfRule type="cellIs" dxfId="0" priority="316" operator="greaterThan">
+      <formula>J43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K44">
+    <cfRule type="cellIs" dxfId="0" priority="321" operator="greaterThan">
+      <formula>J44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K45">
+    <cfRule type="cellIs" dxfId="0" priority="326" operator="greaterThan">
+      <formula>J45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K46">
+    <cfRule type="cellIs" dxfId="0" priority="331" operator="greaterThan">
+      <formula>J46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K47">
+    <cfRule type="cellIs" dxfId="0" priority="336" operator="greaterThan">
+      <formula>J47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K48">
+    <cfRule type="cellIs" dxfId="0" priority="341" operator="greaterThan">
+      <formula>J48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K53">
+    <cfRule type="cellIs" dxfId="0" priority="346" operator="greaterThan">
+      <formula>J53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K54">
+    <cfRule type="cellIs" dxfId="0" priority="351" operator="greaterThan">
+      <formula>J54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K55">
+    <cfRule type="cellIs" dxfId="0" priority="356" operator="greaterThan">
+      <formula>J55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K56">
+    <cfRule type="cellIs" dxfId="0" priority="361" operator="greaterThan">
+      <formula>J56</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K57">
+    <cfRule type="cellIs" dxfId="0" priority="366" operator="greaterThan">
+      <formula>J57</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="cellIs" dxfId="0" priority="156" operator="greaterThan">
+      <formula>J7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="cellIs" dxfId="0" priority="161" operator="greaterThan">
+      <formula>J8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="0" priority="166" operator="greaterThan">
+      <formula>J9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="cellIs" dxfId="3" priority="172" operator="lessThanOrEqual">
+      <formula>H12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="cellIs" dxfId="3" priority="177" operator="lessThanOrEqual">
+      <formula>H13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="cellIs" dxfId="3" priority="182" operator="lessThanOrEqual">
+      <formula>H14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15">
+    <cfRule type="cellIs" dxfId="3" priority="187" operator="lessThanOrEqual">
+      <formula>H15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="cellIs" dxfId="3" priority="192" operator="lessThanOrEqual">
+      <formula>H16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17">
+    <cfRule type="cellIs" dxfId="3" priority="197" operator="lessThanOrEqual">
+      <formula>H17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L18">
+    <cfRule type="cellIs" dxfId="3" priority="202" operator="lessThanOrEqual">
+      <formula>H18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19">
+    <cfRule type="cellIs" dxfId="3" priority="207" operator="lessThanOrEqual">
+      <formula>H19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="3" priority="212" operator="lessThanOrEqual">
+      <formula>H20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21">
+    <cfRule type="cellIs" dxfId="3" priority="217" operator="lessThanOrEqual">
+      <formula>H21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L22">
+    <cfRule type="cellIs" dxfId="3" priority="222" operator="lessThanOrEqual">
+      <formula>H22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="cellIs" dxfId="3" priority="227" operator="lessThanOrEqual">
+      <formula>H25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26">
+    <cfRule type="cellIs" dxfId="3" priority="232" operator="lessThanOrEqual">
+      <formula>H26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27">
+    <cfRule type="cellIs" dxfId="3" priority="237" operator="lessThanOrEqual">
+      <formula>H27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L28">
+    <cfRule type="cellIs" dxfId="3" priority="242" operator="lessThanOrEqual">
+      <formula>H28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L29">
+    <cfRule type="cellIs" dxfId="3" priority="247" operator="lessThanOrEqual">
+      <formula>H29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L30">
+    <cfRule type="cellIs" dxfId="3" priority="252" operator="lessThanOrEqual">
+      <formula>H30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="3" priority="257" operator="lessThanOrEqual">
+      <formula>H31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L32">
+    <cfRule type="cellIs" dxfId="3" priority="262" operator="lessThanOrEqual">
+      <formula>H32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L33">
+    <cfRule type="cellIs" dxfId="3" priority="267" operator="lessThanOrEqual">
+      <formula>H33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L34">
+    <cfRule type="cellIs" dxfId="3" priority="272" operator="lessThanOrEqual">
+      <formula>H34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L35">
+    <cfRule type="cellIs" dxfId="3" priority="277" operator="lessThanOrEqual">
+      <formula>H35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L36">
+    <cfRule type="cellIs" dxfId="3" priority="282" operator="lessThanOrEqual">
+      <formula>H36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L37">
+    <cfRule type="cellIs" dxfId="3" priority="287" operator="lessThanOrEqual">
+      <formula>H37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L38">
+    <cfRule type="cellIs" dxfId="3" priority="292" operator="lessThanOrEqual">
+      <formula>H38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L39">
+    <cfRule type="cellIs" dxfId="3" priority="297" operator="lessThanOrEqual">
+      <formula>H39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L40">
+    <cfRule type="cellIs" dxfId="3" priority="302" operator="lessThanOrEqual">
+      <formula>H40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L41">
+    <cfRule type="cellIs" dxfId="3" priority="307" operator="lessThanOrEqual">
+      <formula>H41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L42">
+    <cfRule type="cellIs" dxfId="3" priority="312" operator="lessThanOrEqual">
+      <formula>H42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L43">
+    <cfRule type="cellIs" dxfId="3" priority="317" operator="lessThanOrEqual">
+      <formula>H43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L44">
+    <cfRule type="cellIs" dxfId="3" priority="322" operator="lessThanOrEqual">
+      <formula>H44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45">
+    <cfRule type="cellIs" dxfId="3" priority="327" operator="lessThanOrEqual">
+      <formula>H45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L46">
+    <cfRule type="cellIs" dxfId="3" priority="332" operator="lessThanOrEqual">
+      <formula>H46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L47">
+    <cfRule type="cellIs" dxfId="3" priority="337" operator="lessThanOrEqual">
+      <formula>H47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L48">
+    <cfRule type="cellIs" dxfId="3" priority="342" operator="lessThanOrEqual">
+      <formula>H48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L53">
+    <cfRule type="cellIs" dxfId="3" priority="347" operator="lessThanOrEqual">
+      <formula>H53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L54">
+    <cfRule type="cellIs" dxfId="3" priority="352" operator="lessThanOrEqual">
+      <formula>H54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L55">
+    <cfRule type="cellIs" dxfId="3" priority="357" operator="lessThanOrEqual">
+      <formula>H55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L56">
+    <cfRule type="cellIs" dxfId="3" priority="362" operator="lessThanOrEqual">
+      <formula>H56</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L57">
+    <cfRule type="cellIs" dxfId="3" priority="367" operator="lessThanOrEqual">
+      <formula>H57</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L7">
+    <cfRule type="cellIs" dxfId="3" priority="157" operator="lessThanOrEqual">
+      <formula>H7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="cellIs" dxfId="3" priority="162" operator="lessThanOrEqual">
+      <formula>H8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="cellIs" dxfId="3" priority="167" operator="lessThanOrEqual">
+      <formula>H9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M12">
+    <cfRule type="cellIs" dxfId="3" priority="173" operator="lessThanOrEqual">
+      <formula>I12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="cellIs" dxfId="3" priority="178" operator="lessThanOrEqual">
+      <formula>I13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="cellIs" dxfId="3" priority="183" operator="lessThanOrEqual">
+      <formula>I14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M15">
+    <cfRule type="cellIs" dxfId="3" priority="188" operator="lessThanOrEqual">
+      <formula>I15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="cellIs" dxfId="3" priority="193" operator="lessThanOrEqual">
+      <formula>I16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M17">
+    <cfRule type="cellIs" dxfId="3" priority="198" operator="lessThanOrEqual">
+      <formula>I17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M18">
+    <cfRule type="cellIs" dxfId="3" priority="203" operator="lessThanOrEqual">
+      <formula>I18</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19">
+    <cfRule type="cellIs" dxfId="3" priority="208" operator="lessThanOrEqual">
+      <formula>I19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20">
+    <cfRule type="cellIs" dxfId="3" priority="213" operator="lessThanOrEqual">
+      <formula>I20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="cellIs" dxfId="3" priority="218" operator="lessThanOrEqual">
+      <formula>I21</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M22">
+    <cfRule type="cellIs" dxfId="3" priority="223" operator="lessThanOrEqual">
+      <formula>I22</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M25">
+    <cfRule type="cellIs" dxfId="3" priority="228" operator="lessThanOrEqual">
+      <formula>I25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="cellIs" dxfId="3" priority="233" operator="lessThanOrEqual">
+      <formula>I26</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27">
+    <cfRule type="cellIs" dxfId="3" priority="238" operator="lessThanOrEqual">
+      <formula>I27</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M28">
+    <cfRule type="cellIs" dxfId="3" priority="243" operator="lessThanOrEqual">
+      <formula>I28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29">
+    <cfRule type="cellIs" dxfId="3" priority="248" operator="lessThanOrEqual">
+      <formula>I29</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30">
+    <cfRule type="cellIs" dxfId="3" priority="253" operator="lessThanOrEqual">
+      <formula>I30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M31">
+    <cfRule type="cellIs" dxfId="3" priority="258" operator="lessThanOrEqual">
+      <formula>I31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M32">
+    <cfRule type="cellIs" dxfId="3" priority="263" operator="lessThanOrEqual">
+      <formula>I32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M33">
+    <cfRule type="cellIs" dxfId="3" priority="268" operator="lessThanOrEqual">
+      <formula>I33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34">
+    <cfRule type="cellIs" dxfId="3" priority="273" operator="lessThanOrEqual">
+      <formula>I34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M35">
+    <cfRule type="cellIs" dxfId="3" priority="278" operator="lessThanOrEqual">
+      <formula>I35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M36">
+    <cfRule type="cellIs" dxfId="3" priority="283" operator="lessThanOrEqual">
+      <formula>I36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M37">
+    <cfRule type="cellIs" dxfId="3" priority="288" operator="lessThanOrEqual">
+      <formula>I37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M38">
+    <cfRule type="cellIs" dxfId="3" priority="293" operator="lessThanOrEqual">
+      <formula>I38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M39">
+    <cfRule type="cellIs" dxfId="3" priority="298" operator="lessThanOrEqual">
+      <formula>I39</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M40">
+    <cfRule type="cellIs" dxfId="3" priority="303" operator="lessThanOrEqual">
+      <formula>I40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M41">
+    <cfRule type="cellIs" dxfId="3" priority="308" operator="lessThanOrEqual">
+      <formula>I41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M42">
+    <cfRule type="cellIs" dxfId="3" priority="313" operator="lessThanOrEqual">
+      <formula>I42</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M43">
+    <cfRule type="cellIs" dxfId="3" priority="318" operator="lessThanOrEqual">
+      <formula>I43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M44">
+    <cfRule type="cellIs" dxfId="3" priority="323" operator="lessThanOrEqual">
+      <formula>I44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M45">
+    <cfRule type="cellIs" dxfId="3" priority="328" operator="lessThanOrEqual">
+      <formula>I45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M46">
+    <cfRule type="cellIs" dxfId="3" priority="333" operator="lessThanOrEqual">
+      <formula>I46</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M47">
+    <cfRule type="cellIs" dxfId="3" priority="338" operator="lessThanOrEqual">
+      <formula>I47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M48">
+    <cfRule type="cellIs" dxfId="3" priority="343" operator="lessThanOrEqual">
+      <formula>I48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M53">
+    <cfRule type="cellIs" dxfId="3" priority="348" operator="lessThanOrEqual">
+      <formula>I53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M54">
+    <cfRule type="cellIs" dxfId="3" priority="353" operator="lessThanOrEqual">
+      <formula>I54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M55">
+    <cfRule type="cellIs" dxfId="3" priority="358" operator="lessThanOrEqual">
+      <formula>I55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M56">
+    <cfRule type="cellIs" dxfId="3" priority="363" operator="lessThanOrEqual">
+      <formula>I56</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M57">
+    <cfRule type="cellIs" dxfId="3" priority="368" operator="lessThanOrEqual">
+      <formula>I57</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="cellIs" dxfId="3" priority="158" operator="lessThanOrEqual">
+      <formula>I7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="cellIs" dxfId="3" priority="163" operator="lessThanOrEqual">
+      <formula>I8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="cellIs" dxfId="3" priority="168" operator="lessThanOrEqual">
+      <formula>I9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T52">
+    <cfRule type="cellIs" dxfId="0" priority="369" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="167" operator="lessThan">
-      <formula>G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="cellIs" dxfId="0" priority="171" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="172" operator="lessThan">
-      <formula>G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K10">
-    <cfRule type="cellIs" dxfId="0" priority="178" operator="greaterThan">
-      <formula>J10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11">
-    <cfRule type="cellIs" dxfId="0" priority="183" operator="greaterThan">
-      <formula>J11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
-    <cfRule type="cellIs" dxfId="0" priority="188" operator="greaterThan">
-      <formula>J12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15">
-    <cfRule type="cellIs" dxfId="0" priority="193" operator="greaterThan">
-      <formula>J15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="0" priority="198" operator="greaterThan">
-      <formula>J16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K17">
-    <cfRule type="cellIs" dxfId="0" priority="203" operator="greaterThan">
-      <formula>J17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K19">
-    <cfRule type="cellIs" dxfId="0" priority="208" operator="greaterThan">
-      <formula>J19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20">
-    <cfRule type="cellIs" dxfId="0" priority="213" operator="greaterThan">
-      <formula>J20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K21">
-    <cfRule type="cellIs" dxfId="0" priority="218" operator="greaterThan">
-      <formula>J21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K22">
-    <cfRule type="cellIs" dxfId="0" priority="223" operator="greaterThan">
-      <formula>J22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K23">
-    <cfRule type="cellIs" dxfId="0" priority="228" operator="greaterThan">
-      <formula>J23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K24">
-    <cfRule type="cellIs" dxfId="0" priority="233" operator="greaterThan">
-      <formula>J24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K25">
-    <cfRule type="cellIs" dxfId="0" priority="238" operator="greaterThan">
-      <formula>J25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K26">
-    <cfRule type="cellIs" dxfId="0" priority="243" operator="greaterThan">
-      <formula>J26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K28">
-    <cfRule type="cellIs" dxfId="0" priority="248" operator="greaterThan">
-      <formula>J28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K30">
-    <cfRule type="cellIs" dxfId="0" priority="253" operator="greaterThan">
-      <formula>J30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K31">
-    <cfRule type="cellIs" dxfId="0" priority="258" operator="greaterThan">
-      <formula>J31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K32">
-    <cfRule type="cellIs" dxfId="0" priority="263" operator="greaterThan">
-      <formula>J32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K33">
-    <cfRule type="cellIs" dxfId="0" priority="268" operator="greaterThan">
-      <formula>J33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K34">
-    <cfRule type="cellIs" dxfId="0" priority="273" operator="greaterThan">
-      <formula>J34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K36">
-    <cfRule type="cellIs" dxfId="0" priority="278" operator="greaterThan">
-      <formula>J36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K37">
-    <cfRule type="cellIs" dxfId="0" priority="283" operator="greaterThan">
-      <formula>J37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
-    <cfRule type="cellIs" dxfId="0" priority="288" operator="greaterThan">
-      <formula>J38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K41">
-    <cfRule type="cellIs" dxfId="0" priority="293" operator="greaterThan">
-      <formula>J41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43">
-    <cfRule type="cellIs" dxfId="0" priority="298" operator="greaterThan">
-      <formula>J43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
-    <cfRule type="cellIs" dxfId="0" priority="303" operator="greaterThan">
-      <formula>J44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K46">
-    <cfRule type="cellIs" dxfId="0" priority="308" operator="greaterThan">
-      <formula>J46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K47">
-    <cfRule type="cellIs" dxfId="0" priority="313" operator="greaterThan">
-      <formula>J47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K49">
-    <cfRule type="cellIs" dxfId="0" priority="318" operator="greaterThan">
-      <formula>J49</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K51">
-    <cfRule type="cellIs" dxfId="0" priority="323" operator="greaterThan">
-      <formula>J51</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K53">
-    <cfRule type="cellIs" dxfId="0" priority="328" operator="greaterThan">
-      <formula>J53</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K54">
-    <cfRule type="cellIs" dxfId="0" priority="333" operator="greaterThan">
-      <formula>J54</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57">
-    <cfRule type="cellIs" dxfId="0" priority="338" operator="greaterThan">
-      <formula>J57</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K59">
-    <cfRule type="cellIs" dxfId="0" priority="343" operator="greaterThan">
-      <formula>J59</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K60">
-    <cfRule type="cellIs" dxfId="0" priority="348" operator="greaterThan">
-      <formula>J60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K61">
-    <cfRule type="cellIs" dxfId="0" priority="353" operator="greaterThan">
-      <formula>J61</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7">
-    <cfRule type="cellIs" dxfId="0" priority="168" operator="greaterThan">
-      <formula>J7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="0" priority="173" operator="greaterThan">
-      <formula>J8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="cellIs" dxfId="3" priority="179" operator="lessThanOrEqual">
-      <formula>H10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="cellIs" dxfId="3" priority="184" operator="lessThanOrEqual">
-      <formula>H11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
-    <cfRule type="cellIs" dxfId="3" priority="189" operator="lessThanOrEqual">
-      <formula>H12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L15">
-    <cfRule type="cellIs" dxfId="3" priority="194" operator="lessThanOrEqual">
-      <formula>H15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="cellIs" dxfId="3" priority="199" operator="lessThanOrEqual">
-      <formula>H16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L17">
-    <cfRule type="cellIs" dxfId="3" priority="204" operator="lessThanOrEqual">
-      <formula>H17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L19">
-    <cfRule type="cellIs" dxfId="3" priority="209" operator="lessThanOrEqual">
-      <formula>H19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
-    <cfRule type="cellIs" dxfId="3" priority="214" operator="lessThanOrEqual">
-      <formula>H20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21">
-    <cfRule type="cellIs" dxfId="3" priority="219" operator="lessThanOrEqual">
-      <formula>H21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L22">
-    <cfRule type="cellIs" dxfId="3" priority="224" operator="lessThanOrEqual">
-      <formula>H22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L23">
-    <cfRule type="cellIs" dxfId="3" priority="229" operator="lessThanOrEqual">
-      <formula>H23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="3" priority="234" operator="lessThanOrEqual">
-      <formula>H24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25">
-    <cfRule type="cellIs" dxfId="3" priority="239" operator="lessThanOrEqual">
-      <formula>H25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L26">
-    <cfRule type="cellIs" dxfId="3" priority="244" operator="lessThanOrEqual">
-      <formula>H26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
-    <cfRule type="cellIs" dxfId="3" priority="249" operator="lessThanOrEqual">
-      <formula>H28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L30">
-    <cfRule type="cellIs" dxfId="3" priority="254" operator="lessThanOrEqual">
-      <formula>H30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L31">
-    <cfRule type="cellIs" dxfId="3" priority="259" operator="lessThanOrEqual">
-      <formula>H31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L32">
-    <cfRule type="cellIs" dxfId="3" priority="264" operator="lessThanOrEqual">
-      <formula>H32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L33">
-    <cfRule type="cellIs" dxfId="3" priority="269" operator="lessThanOrEqual">
-      <formula>H33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
-    <cfRule type="cellIs" dxfId="3" priority="274" operator="lessThanOrEqual">
-      <formula>H34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L36">
-    <cfRule type="cellIs" dxfId="3" priority="279" operator="lessThanOrEqual">
-      <formula>H36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L37">
-    <cfRule type="cellIs" dxfId="3" priority="284" operator="lessThanOrEqual">
-      <formula>H37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L38">
-    <cfRule type="cellIs" dxfId="3" priority="289" operator="lessThanOrEqual">
-      <formula>H38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L41">
-    <cfRule type="cellIs" dxfId="3" priority="294" operator="lessThanOrEqual">
-      <formula>H41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L43">
-    <cfRule type="cellIs" dxfId="3" priority="299" operator="lessThanOrEqual">
-      <formula>H43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L44">
-    <cfRule type="cellIs" dxfId="3" priority="304" operator="lessThanOrEqual">
-      <formula>H44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L46">
-    <cfRule type="cellIs" dxfId="3" priority="309" operator="lessThanOrEqual">
-      <formula>H46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L47">
-    <cfRule type="cellIs" dxfId="3" priority="314" operator="lessThanOrEqual">
-      <formula>H47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L49">
-    <cfRule type="cellIs" dxfId="3" priority="319" operator="lessThanOrEqual">
-      <formula>H49</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L51">
-    <cfRule type="cellIs" dxfId="3" priority="324" operator="lessThanOrEqual">
-      <formula>H51</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L53">
-    <cfRule type="cellIs" dxfId="3" priority="329" operator="lessThanOrEqual">
-      <formula>H53</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L54">
-    <cfRule type="cellIs" dxfId="3" priority="334" operator="lessThanOrEqual">
-      <formula>H54</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L57">
-    <cfRule type="cellIs" dxfId="3" priority="339" operator="lessThanOrEqual">
-      <formula>H57</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L59">
-    <cfRule type="cellIs" dxfId="3" priority="344" operator="lessThanOrEqual">
-      <formula>H59</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L60">
-    <cfRule type="cellIs" dxfId="3" priority="349" operator="lessThanOrEqual">
-      <formula>H60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L61">
-    <cfRule type="cellIs" dxfId="3" priority="354" operator="lessThanOrEqual">
-      <formula>H61</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L7">
-    <cfRule type="cellIs" dxfId="3" priority="169" operator="lessThanOrEqual">
-      <formula>H7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8">
-    <cfRule type="cellIs" dxfId="3" priority="174" operator="lessThanOrEqual">
-      <formula>H8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="cellIs" dxfId="3" priority="180" operator="lessThanOrEqual">
-      <formula>I10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="cellIs" dxfId="3" priority="185" operator="lessThanOrEqual">
-      <formula>I11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M12">
-    <cfRule type="cellIs" dxfId="3" priority="190" operator="lessThanOrEqual">
-      <formula>I12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M15">
-    <cfRule type="cellIs" dxfId="3" priority="195" operator="lessThanOrEqual">
-      <formula>I15</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="3" priority="200" operator="lessThanOrEqual">
-      <formula>I16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M17">
-    <cfRule type="cellIs" dxfId="3" priority="205" operator="lessThanOrEqual">
-      <formula>I17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M19">
-    <cfRule type="cellIs" dxfId="3" priority="210" operator="lessThanOrEqual">
-      <formula>I19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20">
-    <cfRule type="cellIs" dxfId="3" priority="215" operator="lessThanOrEqual">
-      <formula>I20</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M21">
-    <cfRule type="cellIs" dxfId="3" priority="220" operator="lessThanOrEqual">
-      <formula>I21</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M22">
-    <cfRule type="cellIs" dxfId="3" priority="225" operator="lessThanOrEqual">
-      <formula>I22</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M23">
-    <cfRule type="cellIs" dxfId="3" priority="230" operator="lessThanOrEqual">
-      <formula>I23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M24">
-    <cfRule type="cellIs" dxfId="3" priority="235" operator="lessThanOrEqual">
-      <formula>I24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M25">
-    <cfRule type="cellIs" dxfId="3" priority="240" operator="lessThanOrEqual">
-      <formula>I25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M26">
-    <cfRule type="cellIs" dxfId="3" priority="245" operator="lessThanOrEqual">
-      <formula>I26</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M28">
-    <cfRule type="cellIs" dxfId="3" priority="250" operator="lessThanOrEqual">
-      <formula>I28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M30">
-    <cfRule type="cellIs" dxfId="3" priority="255" operator="lessThanOrEqual">
-      <formula>I30</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M31">
-    <cfRule type="cellIs" dxfId="3" priority="260" operator="lessThanOrEqual">
-      <formula>I31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M32">
-    <cfRule type="cellIs" dxfId="3" priority="265" operator="lessThanOrEqual">
-      <formula>I32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M33">
-    <cfRule type="cellIs" dxfId="3" priority="270" operator="lessThanOrEqual">
-      <formula>I33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34">
-    <cfRule type="cellIs" dxfId="3" priority="275" operator="lessThanOrEqual">
-      <formula>I34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M36">
-    <cfRule type="cellIs" dxfId="3" priority="280" operator="lessThanOrEqual">
-      <formula>I36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M37">
-    <cfRule type="cellIs" dxfId="3" priority="285" operator="lessThanOrEqual">
-      <formula>I37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M38">
-    <cfRule type="cellIs" dxfId="3" priority="290" operator="lessThanOrEqual">
-      <formula>I38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M41">
-    <cfRule type="cellIs" dxfId="3" priority="295" operator="lessThanOrEqual">
-      <formula>I41</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M43">
-    <cfRule type="cellIs" dxfId="3" priority="300" operator="lessThanOrEqual">
-      <formula>I43</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M44">
-    <cfRule type="cellIs" dxfId="3" priority="305" operator="lessThanOrEqual">
-      <formula>I44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M46">
-    <cfRule type="cellIs" dxfId="3" priority="310" operator="lessThanOrEqual">
-      <formula>I46</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M47">
-    <cfRule type="cellIs" dxfId="3" priority="315" operator="lessThanOrEqual">
-      <formula>I47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M49">
-    <cfRule type="cellIs" dxfId="3" priority="320" operator="lessThanOrEqual">
-      <formula>I49</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M51">
-    <cfRule type="cellIs" dxfId="3" priority="325" operator="lessThanOrEqual">
-      <formula>I51</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M53">
-    <cfRule type="cellIs" dxfId="3" priority="330" operator="lessThanOrEqual">
-      <formula>I53</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M54">
-    <cfRule type="cellIs" dxfId="3" priority="335" operator="lessThanOrEqual">
-      <formula>I54</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M57">
-    <cfRule type="cellIs" dxfId="3" priority="340" operator="lessThanOrEqual">
-      <formula>I57</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M59">
-    <cfRule type="cellIs" dxfId="3" priority="345" operator="lessThanOrEqual">
-      <formula>I59</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M60">
-    <cfRule type="cellIs" dxfId="3" priority="350" operator="lessThanOrEqual">
-      <formula>I60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M61">
-    <cfRule type="cellIs" dxfId="3" priority="355" operator="lessThanOrEqual">
-      <formula>I61</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="cellIs" dxfId="3" priority="170" operator="lessThanOrEqual">
-      <formula>I7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="cellIs" dxfId="3" priority="175" operator="lessThanOrEqual">
-      <formula>I8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T56">
-    <cfRule type="cellIs" dxfId="0" priority="356" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="357" operator="lessThan">
-      <formula>G56</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U56">
-    <cfRule type="cellIs" dxfId="0" priority="358" operator="greaterThan">
-      <formula>T56</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V56">
-    <cfRule type="cellIs" dxfId="3" priority="359" operator="lessThanOrEqual">
-      <formula>H56</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W56">
-    <cfRule type="cellIs" dxfId="3" priority="360" operator="lessThanOrEqual">
-      <formula>I56</formula>
+    <cfRule type="cellIs" dxfId="1" priority="370" operator="lessThan">
+      <formula>G52</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U52">
+    <cfRule type="cellIs" dxfId="0" priority="371" operator="greaterThan">
+      <formula>T52</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V52">
+    <cfRule type="cellIs" dxfId="3" priority="372" operator="lessThanOrEqual">
+      <formula>H52</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W52">
+    <cfRule type="cellIs" dxfId="3" priority="373" operator="lessThanOrEqual">
+      <formula>I52</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="N7" r:id="rId1"/>
     <hyperlink ref="N8" r:id="rId2"/>
-    <hyperlink ref="N10" r:id="rId3"/>
-    <hyperlink ref="N11" r:id="rId4"/>
-    <hyperlink ref="N12" r:id="rId5"/>
-    <hyperlink ref="N15" r:id="rId6"/>
-    <hyperlink ref="N16" r:id="rId7"/>
-    <hyperlink ref="N17" r:id="rId8"/>
-    <hyperlink ref="N19" r:id="rId9"/>
-    <hyperlink ref="N20" r:id="rId10"/>
-    <hyperlink ref="N21" r:id="rId11"/>
-    <hyperlink ref="N22" r:id="rId12"/>
-    <hyperlink ref="N23" r:id="rId13"/>
-    <hyperlink ref="N24" r:id="rId14"/>
+    <hyperlink ref="N9" r:id="rId3"/>
+    <hyperlink ref="N12" r:id="rId4"/>
+    <hyperlink ref="N13" r:id="rId5"/>
+    <hyperlink ref="N14" r:id="rId6"/>
+    <hyperlink ref="N15" r:id="rId7"/>
+    <hyperlink ref="N16" r:id="rId8"/>
+    <hyperlink ref="N17" r:id="rId9"/>
+    <hyperlink ref="N18" r:id="rId10"/>
+    <hyperlink ref="N19" r:id="rId11"/>
+    <hyperlink ref="N20" r:id="rId12"/>
+    <hyperlink ref="N21" r:id="rId13"/>
+    <hyperlink ref="N22" r:id="rId14"/>
     <hyperlink ref="N25" r:id="rId15"/>
     <hyperlink ref="N26" r:id="rId16"/>
-    <hyperlink ref="N28" r:id="rId17"/>
-    <hyperlink ref="N30" r:id="rId18"/>
-    <hyperlink ref="N31" r:id="rId19"/>
-    <hyperlink ref="N32" r:id="rId20"/>
-    <hyperlink ref="N33" r:id="rId21"/>
-    <hyperlink ref="N34" r:id="rId22"/>
-    <hyperlink ref="N36" r:id="rId23"/>
-    <hyperlink ref="N37" r:id="rId24"/>
-    <hyperlink ref="N38" r:id="rId25"/>
-    <hyperlink ref="N41" r:id="rId26"/>
-    <hyperlink ref="N43" r:id="rId27"/>
-    <hyperlink ref="N44" r:id="rId28"/>
-    <hyperlink ref="N46" r:id="rId29"/>
-    <hyperlink ref="N47" r:id="rId30"/>
-    <hyperlink ref="N49" r:id="rId31"/>
-    <hyperlink ref="N51" r:id="rId32"/>
-    <hyperlink ref="N53" r:id="rId33"/>
-    <hyperlink ref="N54" r:id="rId34"/>
-    <hyperlink ref="X56" r:id="rId35"/>
-    <hyperlink ref="N57" r:id="rId36"/>
-    <hyperlink ref="N59" r:id="rId37"/>
-    <hyperlink ref="N60" r:id="rId38"/>
-    <hyperlink ref="N61" r:id="rId39"/>
+    <hyperlink ref="N27" r:id="rId17"/>
+    <hyperlink ref="N28" r:id="rId18"/>
+    <hyperlink ref="N29" r:id="rId19"/>
+    <hyperlink ref="N30" r:id="rId20"/>
+    <hyperlink ref="N31" r:id="rId21"/>
+    <hyperlink ref="N32" r:id="rId22"/>
+    <hyperlink ref="N33" r:id="rId23"/>
+    <hyperlink ref="N34" r:id="rId24"/>
+    <hyperlink ref="N35" r:id="rId25"/>
+    <hyperlink ref="N36" r:id="rId26"/>
+    <hyperlink ref="N37" r:id="rId27"/>
+    <hyperlink ref="N38" r:id="rId28"/>
+    <hyperlink ref="N39" r:id="rId29"/>
+    <hyperlink ref="N40" r:id="rId30"/>
+    <hyperlink ref="N41" r:id="rId31"/>
+    <hyperlink ref="N42" r:id="rId32"/>
+    <hyperlink ref="N43" r:id="rId33"/>
+    <hyperlink ref="N44" r:id="rId34"/>
+    <hyperlink ref="N45" r:id="rId35"/>
+    <hyperlink ref="N46" r:id="rId36"/>
+    <hyperlink ref="N47" r:id="rId37"/>
+    <hyperlink ref="N48" r:id="rId38"/>
+    <hyperlink ref="N50" r:id="rId39"/>
+    <hyperlink ref="X52" r:id="rId40"/>
+    <hyperlink ref="N53" r:id="rId41"/>
+    <hyperlink ref="N54" r:id="rId42"/>
+    <hyperlink ref="N55" r:id="rId43"/>
+    <hyperlink ref="N56" r:id="rId44"/>
+    <hyperlink ref="N57" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId40"/>
+  <legacyDrawing r:id="rId46"/>
 </worksheet>
 </file>